--- a/reports/comparison.xlsx
+++ b/reports/comparison.xlsx
@@ -4998,7 +4998,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>7904</v>
@@ -5021,13 +5021,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>7959</v>
       </c>
       <c r="D3" t="n">
-        <v>7234</v>
+        <v>7379</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -5044,13 +5044,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>7959</v>
       </c>
       <c r="D4" t="n">
-        <v>7231</v>
+        <v>7375.4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -5067,13 +5067,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>7959</v>
       </c>
       <c r="D5" t="n">
-        <v>7228</v>
+        <v>7371.8</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>7925</v>
@@ -5136,13 +5136,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>7959</v>
       </c>
       <c r="D8" t="n">
-        <v>7217</v>
+        <v>7358.6</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -5182,13 +5182,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>7959</v>
       </c>
       <c r="D10" t="n">
-        <v>7182</v>
+        <v>7316.6</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>7930</v>
@@ -5251,13 +5251,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>7911</v>
       </c>
       <c r="D13" t="n">
-        <v>6960</v>
+        <v>7197.75</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>29713</v>
@@ -5297,13 +5297,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>7958</v>
       </c>
       <c r="D15" t="n">
-        <v>7232.5</v>
+        <v>7377.4</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -5320,13 +5320,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>7957</v>
       </c>
       <c r="D16" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -5343,13 +5343,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>7949</v>
       </c>
       <c r="D17" t="n">
-        <v>6985.333333333333</v>
+        <v>7226.25</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -5366,13 +5366,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>7959</v>
       </c>
       <c r="D18" t="n">
-        <v>6667.1</v>
+        <v>6803</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -5389,13 +5389,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>7934</v>
       </c>
       <c r="D19" t="n">
-        <v>6496.25</v>
+        <v>6783.8</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>7956</v>
@@ -5435,13 +5435,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>7959</v>
       </c>
       <c r="D21" t="n">
-        <v>6509</v>
+        <v>6799</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -5481,13 +5481,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
         <v>7955</v>
       </c>
       <c r="D23" t="n">
-        <v>6989.333333333333</v>
+        <v>7230.75</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -5596,13 +5596,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>7958</v>
       </c>
       <c r="D28" t="n">
-        <v>6137.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -5665,13 +5665,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
         <v>7959</v>
       </c>
       <c r="D31" t="n">
-        <v>7378.6</v>
+        <v>7475.166666666667</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -5688,13 +5688,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
         <v>7959</v>
       </c>
       <c r="D32" t="n">
-        <v>7232.5</v>
+        <v>7377.2</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -5711,13 +5711,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
         <v>7959</v>
       </c>
       <c r="D33" t="n">
-        <v>7233.5</v>
+        <v>7378.4</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5734,13 +5734,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>7955</v>
       </c>
       <c r="D34" t="n">
-        <v>6989.333333333333</v>
+        <v>7230.75</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -5757,13 +5757,13 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>7946</v>
       </c>
       <c r="D35" t="n">
-        <v>6983.666666666667</v>
+        <v>7224.25</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -5803,13 +5803,13 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
         <v>7935</v>
       </c>
       <c r="D37" t="n">
-        <v>6497</v>
+        <v>6784.6</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -5872,13 +5872,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
         <v>8433</v>
       </c>
       <c r="D40" t="n">
-        <v>7335.75</v>
+        <v>7454.2</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -5895,13 +5895,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
         <v>7946</v>
       </c>
       <c r="D41" t="n">
-        <v>6983.333333333333</v>
+        <v>7224</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>7959</v>
@@ -6056,7 +6056,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
         <v>7958</v>
@@ -6079,13 +6079,13 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
         <v>7958</v>
       </c>
       <c r="D49" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -6102,13 +6102,13 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
         <v>7959</v>
       </c>
       <c r="D50" t="n">
-        <v>7220</v>
+        <v>7362.2</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -6125,13 +6125,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
         <v>7959</v>
       </c>
       <c r="D51" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>7923</v>
@@ -6194,13 +6194,13 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>7912</v>
       </c>
       <c r="D54" t="n">
-        <v>6960.666666666667</v>
+        <v>7198.5</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -6263,13 +6263,13 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
         <v>7950</v>
       </c>
       <c r="D57" t="n">
-        <v>6985</v>
+        <v>7226.25</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
@@ -6286,7 +6286,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
         <v>7957</v>
@@ -6309,13 +6309,13 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
         <v>7911</v>
       </c>
       <c r="D59" t="n">
-        <v>6960.333333333333</v>
+        <v>7198</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
         <v>7954</v>
@@ -6355,13 +6355,13 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
         <v>7957</v>
       </c>
       <c r="D61" t="n">
-        <v>7372</v>
+        <v>7537.285714285715</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
@@ -6378,13 +6378,13 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
         <v>7954</v>
       </c>
       <c r="D62" t="n">
-        <v>6989</v>
+        <v>7230.25</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -6401,13 +6401,13 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
         <v>7959</v>
       </c>
       <c r="D63" t="n">
-        <v>7231.5</v>
+        <v>7376</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -6424,13 +6424,13 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
         <v>7959</v>
       </c>
       <c r="D64" t="n">
-        <v>7377.6</v>
+        <v>7474</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -6447,13 +6447,13 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="n">
         <v>7959</v>
       </c>
       <c r="D65" t="n">
-        <v>7374.2</v>
+        <v>7469.666666666667</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -6470,13 +6470,13 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
         <v>7959</v>
       </c>
       <c r="D66" t="n">
-        <v>7203</v>
+        <v>7341.8</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -6493,13 +6493,13 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
         <v>7947</v>
       </c>
       <c r="D67" t="n">
-        <v>6984</v>
+        <v>7224.75</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -6539,13 +6539,13 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
         <v>7956</v>
       </c>
       <c r="D69" t="n">
-        <v>6507.5</v>
+        <v>6797.2</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -6562,13 +6562,13 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>7944</v>
       </c>
       <c r="D70" t="n">
-        <v>6982</v>
+        <v>7222.5</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -6608,13 +6608,13 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C72" t="n">
         <v>7959</v>
       </c>
       <c r="D72" t="n">
-        <v>7311.888888888889</v>
+        <v>7428.454545454545</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -6631,13 +6631,13 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
         <v>7959</v>
       </c>
       <c r="D73" t="n">
-        <v>7224.5</v>
+        <v>7367.6</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -6654,13 +6654,13 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>7959</v>
       </c>
       <c r="D74" t="n">
-        <v>7231</v>
+        <v>7375.4</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
         <v>7953</v>
@@ -6723,13 +6723,13 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
         <v>7959</v>
       </c>
       <c r="D77" t="n">
-        <v>6796.2</v>
+        <v>6988.833333333333</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -6769,13 +6769,13 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
         <v>7959</v>
       </c>
       <c r="D79" t="n">
-        <v>7233</v>
+        <v>7377.8</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -6884,13 +6884,13 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
         <v>7959</v>
       </c>
       <c r="D84" t="n">
-        <v>7221</v>
+        <v>7363.4</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -6907,13 +6907,13 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>31103</v>
+        <v>34926</v>
       </c>
       <c r="D85" t="n">
-        <v>9219.333333333334</v>
+        <v>13589.30769230769</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -6930,13 +6930,13 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
         <v>7959</v>
       </c>
       <c r="D86" t="n">
-        <v>7232</v>
+        <v>7376.6</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>31102</v>
@@ -7045,13 +7045,13 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
         <v>7955</v>
       </c>
       <c r="D91" t="n">
-        <v>6989.666666666667</v>
+        <v>7231</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -7091,13 +7091,13 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" t="n">
         <v>7959</v>
       </c>
       <c r="D93" t="n">
-        <v>7210</v>
+        <v>7350.2</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -7137,13 +7137,13 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
         <v>7959</v>
       </c>
       <c r="D95" t="n">
-        <v>5922</v>
+        <v>6261.5</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -7183,13 +7183,13 @@
         <v>102</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
         <v>7958</v>
       </c>
       <c r="D97" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
         <v>7942</v>
@@ -7367,13 +7367,13 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
         <v>7959</v>
       </c>
       <c r="D105" t="n">
-        <v>7232</v>
+        <v>7376.6</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -7482,7 +7482,7 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
         <v>7958</v>
@@ -7505,13 +7505,13 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
         <v>30700</v>
       </c>
       <c r="D111" t="n">
-        <v>16475</v>
+        <v>15055.5</v>
       </c>
       <c r="E111" t="n">
         <v>2</v>
@@ -7528,13 +7528,13 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
         <v>31103</v>
       </c>
       <c r="D112" t="n">
-        <v>22421.66666666667</v>
+        <v>24592</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -7551,13 +7551,13 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
         <v>7957</v>
       </c>
       <c r="D113" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -7574,13 +7574,13 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
         <v>7947</v>
       </c>
       <c r="D114" t="n">
-        <v>6984</v>
+        <v>7224.75</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -7597,13 +7597,13 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
         <v>7940</v>
       </c>
       <c r="D115" t="n">
-        <v>6978.666666666667</v>
+        <v>7219</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -7620,13 +7620,13 @@
         <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C116" t="n">
         <v>7944</v>
       </c>
       <c r="D116" t="n">
-        <v>6982</v>
+        <v>7222.5</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -7643,13 +7643,13 @@
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
         <v>8010</v>
       </c>
       <c r="D117" t="n">
-        <v>7026.333333333333</v>
+        <v>7272.25</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -7666,13 +7666,13 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118" t="n">
         <v>7957</v>
       </c>
       <c r="D118" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -7689,13 +7689,13 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" t="n">
         <v>30920</v>
       </c>
       <c r="D119" t="n">
-        <v>22299.33333333333</v>
+        <v>24454.5</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -7804,7 +7804,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
         <v>7956</v>
@@ -7827,13 +7827,13 @@
         <v>130</v>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
         <v>7959</v>
       </c>
       <c r="D125" t="n">
-        <v>7216</v>
+        <v>7357.4</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -7919,13 +7919,13 @@
         <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
         <v>7957</v>
       </c>
       <c r="D129" t="n">
-        <v>7369.4</v>
+        <v>7464.166666666667</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -7965,13 +7965,13 @@
         <v>136</v>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
         <v>7898</v>
       </c>
       <c r="D131" t="n">
-        <v>6951.333333333333</v>
+        <v>7188</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -7988,13 +7988,13 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
         <v>7959</v>
       </c>
       <c r="D132" t="n">
-        <v>7371</v>
+        <v>7465.666666666667</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -8080,13 +8080,13 @@
         <v>141</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
         <v>7959</v>
       </c>
       <c r="D136" t="n">
-        <v>7234</v>
+        <v>7379</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -8149,13 +8149,13 @@
         <v>144</v>
       </c>
       <c r="B139" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C139" t="n">
         <v>31099</v>
       </c>
       <c r="D139" t="n">
-        <v>15624.13333333333</v>
+        <v>17570.84210526316</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -8195,13 +8195,13 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
         <v>7957</v>
       </c>
       <c r="D141" t="n">
-        <v>7906.333333333333</v>
+        <v>7919</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -8218,13 +8218,13 @@
         <v>147</v>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" t="n">
         <v>7956</v>
       </c>
       <c r="D142" t="n">
-        <v>6990</v>
+        <v>7231.5</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>148</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
         <v>7941</v>
@@ -8264,13 +8264,13 @@
         <v>149</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" t="n">
         <v>7867</v>
       </c>
       <c r="D144" t="n">
-        <v>6930.666666666667</v>
+        <v>7164.75</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -8310,13 +8310,13 @@
         <v>151</v>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
         <v>7861</v>
       </c>
       <c r="D146" t="n">
-        <v>6926.666666666667</v>
+        <v>7160.25</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
         <v>7945</v>
@@ -8379,13 +8379,13 @@
         <v>154</v>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149" t="n">
         <v>9820</v>
       </c>
       <c r="D149" t="n">
-        <v>7685</v>
+        <v>7734.2</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -8402,7 +8402,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" t="n">
         <v>7956</v>
@@ -8425,7 +8425,7 @@
         <v>156</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>7915</v>
@@ -8448,13 +8448,13 @@
         <v>157</v>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
         <v>7947</v>
       </c>
       <c r="D152" t="n">
-        <v>6983.666666666667</v>
+        <v>7224.5</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -8471,13 +8471,13 @@
         <v>158</v>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
         <v>7959</v>
       </c>
       <c r="D153" t="n">
-        <v>7229</v>
+        <v>7373</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -8494,13 +8494,13 @@
         <v>159</v>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
         <v>28202</v>
       </c>
       <c r="D154" t="n">
-        <v>12270.5</v>
+        <v>11398.6</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -8563,13 +8563,13 @@
         <v>162</v>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C157" t="n">
         <v>7942</v>
       </c>
       <c r="D157" t="n">
-        <v>6978.666666666667</v>
+        <v>7219.5</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -8609,13 +8609,13 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
         <v>10705</v>
       </c>
       <c r="D159" t="n">
-        <v>7850</v>
+        <v>7843.6</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -8632,13 +8632,13 @@
         <v>165</v>
       </c>
       <c r="B160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
         <v>7957</v>
       </c>
       <c r="D160" t="n">
-        <v>6507</v>
+        <v>6797</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -8678,7 +8678,7 @@
         <v>167</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162" t="n">
         <v>7938</v>
@@ -8724,7 +8724,7 @@
         <v>169</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164" t="n">
         <v>7930</v>
@@ -8747,7 +8747,7 @@
         <v>170</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165" t="n">
         <v>7959</v>
@@ -8793,7 +8793,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167" t="n">
         <v>7943</v>
@@ -8839,13 +8839,13 @@
         <v>174</v>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
         <v>7958</v>
       </c>
       <c r="D169" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -8862,13 +8862,13 @@
         <v>175</v>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170" t="n">
         <v>7959</v>
       </c>
       <c r="D170" t="n">
-        <v>7215.5</v>
+        <v>7356.8</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C172" t="n">
         <v>7957</v>
@@ -8931,13 +8931,13 @@
         <v>178</v>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C173" t="n">
         <v>7950</v>
       </c>
       <c r="D173" t="n">
-        <v>6986.333333333333</v>
+        <v>7227.25</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -8954,13 +8954,13 @@
         <v>179</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
         <v>9625</v>
       </c>
       <c r="D174" t="n">
-        <v>7649</v>
+        <v>7710.4</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -8977,13 +8977,13 @@
         <v>180</v>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C175" t="n">
         <v>7959</v>
       </c>
       <c r="D175" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" t="n">
         <v>7944</v>
@@ -9069,13 +9069,13 @@
         <v>184</v>
       </c>
       <c r="B179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C179" t="n">
         <v>7651</v>
       </c>
       <c r="D179" t="n">
-        <v>6786.666666666667</v>
+        <v>7002.75</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="n">
         <v>7958</v>
       </c>
       <c r="D181" t="n">
-        <v>6987.5</v>
+        <v>7124.428571428572</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -9161,13 +9161,13 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C183" t="n">
         <v>7959</v>
       </c>
       <c r="D183" t="n">
-        <v>7232</v>
+        <v>7376.6</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -9184,13 +9184,13 @@
         <v>189</v>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
         <v>7957</v>
       </c>
       <c r="D184" t="n">
-        <v>6991</v>
+        <v>7232.5</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -9207,13 +9207,13 @@
         <v>190</v>
       </c>
       <c r="B185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C185" t="n">
         <v>7944</v>
       </c>
       <c r="D185" t="n">
-        <v>6981.666666666667</v>
+        <v>7222.25</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -9230,13 +9230,13 @@
         <v>191</v>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C186" t="n">
         <v>7928</v>
       </c>
       <c r="D186" t="n">
-        <v>6971</v>
+        <v>7210.25</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -9253,13 +9253,13 @@
         <v>192</v>
       </c>
       <c r="B187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
         <v>7927</v>
       </c>
       <c r="D187" t="n">
-        <v>6971</v>
+        <v>7210</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -9276,13 +9276,13 @@
         <v>193</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C188" t="n">
         <v>31073</v>
       </c>
       <c r="D188" t="n">
-        <v>22401.33333333333</v>
+        <v>24569.25</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -9368,13 +9368,13 @@
         <v>197</v>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
         <v>7921</v>
       </c>
       <c r="D192" t="n">
-        <v>6967</v>
+        <v>7205.5</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -9460,13 +9460,13 @@
         <v>201</v>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C196" t="n">
         <v>7942</v>
       </c>
       <c r="D196" t="n">
-        <v>6978.666666666667</v>
+        <v>7219.5</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -9575,13 +9575,13 @@
         <v>206</v>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C201" t="n">
         <v>7954</v>
       </c>
       <c r="D201" t="n">
-        <v>6988.333333333333</v>
+        <v>7229.75</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" t="n">
         <v>7957</v>
@@ -9621,13 +9621,13 @@
         <v>208</v>
       </c>
       <c r="B203" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="n">
         <v>7959</v>
       </c>
       <c r="D203" t="n">
-        <v>7376.6</v>
+        <v>7472.666666666667</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -9644,13 +9644,13 @@
         <v>209</v>
       </c>
       <c r="B204" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C204" t="n">
         <v>31101</v>
       </c>
       <c r="D204" t="n">
-        <v>13737.91666666667</v>
+        <v>16218.28571428571</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -9690,7 +9690,7 @@
         <v>211</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
         <v>19425</v>
@@ -9713,7 +9713,7 @@
         <v>212</v>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C207" t="n">
         <v>7951</v>
@@ -9782,7 +9782,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210" t="n">
         <v>7800</v>
@@ -9828,7 +9828,7 @@
         <v>217</v>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
         <v>7946</v>
@@ -9851,13 +9851,13 @@
         <v>218</v>
       </c>
       <c r="B213" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C213" t="n">
         <v>7836</v>
       </c>
       <c r="D213" t="n">
-        <v>6909.666666666667</v>
+        <v>7141.25</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -9897,13 +9897,13 @@
         <v>220</v>
       </c>
       <c r="B215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C215" t="n">
         <v>7827</v>
       </c>
       <c r="D215" t="n">
-        <v>6902.666666666667</v>
+        <v>7133.75</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -10035,13 +10035,13 @@
         <v>226</v>
       </c>
       <c r="B221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C221" t="n">
         <v>7953</v>
       </c>
       <c r="D221" t="n">
-        <v>6988.333333333333</v>
+        <v>7229.5</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -10058,13 +10058,13 @@
         <v>227</v>
       </c>
       <c r="B222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C222" t="n">
         <v>7956</v>
       </c>
       <c r="D222" t="n">
-        <v>6990.333333333333</v>
+        <v>7231.75</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -10081,13 +10081,13 @@
         <v>228</v>
       </c>
       <c r="B223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C223" t="n">
         <v>7947</v>
       </c>
       <c r="D223" t="n">
-        <v>6984.333333333333</v>
+        <v>7225</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -10104,13 +10104,13 @@
         <v>229</v>
       </c>
       <c r="B224" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="n">
         <v>7918</v>
       </c>
       <c r="D224" t="n">
-        <v>6961.833333333333</v>
+        <v>7199.75</v>
       </c>
       <c r="E224" t="n">
         <v>2</v>
@@ -10173,13 +10173,13 @@
         <v>232</v>
       </c>
       <c r="B227" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C227" t="n">
         <v>7959</v>
       </c>
       <c r="D227" t="n">
-        <v>6524.739130434783</v>
+        <v>7024.678571428572</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -10219,13 +10219,13 @@
         <v>234</v>
       </c>
       <c r="B229" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
         <v>7958</v>
       </c>
       <c r="D229" t="n">
-        <v>6508.25</v>
+        <v>6798.2</v>
       </c>
       <c r="E229" t="n">
         <v>2</v>
@@ -10265,13 +10265,13 @@
         <v>236</v>
       </c>
       <c r="B231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C231" t="n">
         <v>7929</v>
       </c>
       <c r="D231" t="n">
-        <v>6972.333333333333</v>
+        <v>7211.5</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -10334,13 +10334,13 @@
         <v>239</v>
       </c>
       <c r="B234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C234" t="n">
         <v>7956</v>
       </c>
       <c r="D234" t="n">
-        <v>6507.25</v>
+        <v>6797</v>
       </c>
       <c r="E234" t="n">
         <v>2</v>
@@ -10357,13 +10357,13 @@
         <v>240</v>
       </c>
       <c r="B235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C235" t="n">
         <v>7815</v>
       </c>
       <c r="D235" t="n">
-        <v>6896.333333333333</v>
+        <v>7126</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -10426,13 +10426,13 @@
         <v>243</v>
       </c>
       <c r="B238" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
         <v>7959</v>
       </c>
       <c r="D238" t="n">
-        <v>7232</v>
+        <v>7376.6</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -10449,13 +10449,13 @@
         <v>244</v>
       </c>
       <c r="B239" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="n">
         <v>7959</v>
       </c>
       <c r="D239" t="n">
-        <v>6606.8</v>
+        <v>6752.166666666667</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -10518,13 +10518,13 @@
         <v>247</v>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C242" t="n">
         <v>7940</v>
       </c>
       <c r="D242" t="n">
-        <v>6499.5</v>
+        <v>6787.6</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -10541,13 +10541,13 @@
         <v>248</v>
       </c>
       <c r="B243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C243" t="n">
         <v>7895</v>
       </c>
       <c r="D243" t="n">
-        <v>6949.666666666667</v>
+        <v>7186</v>
       </c>
       <c r="E243" t="n">
         <v>1</v>
@@ -10564,7 +10564,7 @@
         <v>249</v>
       </c>
       <c r="B244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C244" t="n">
         <v>7958</v>
@@ -10587,7 +10587,7 @@
         <v>250</v>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C245" t="n">
         <v>7957</v>
@@ -10610,13 +10610,13 @@
         <v>251</v>
       </c>
       <c r="B246" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C246" t="n">
         <v>31102</v>
       </c>
       <c r="D246" t="n">
-        <v>12444</v>
+        <v>13729.09090909091</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -10633,7 +10633,7 @@
         <v>252</v>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C247" t="n">
         <v>7958</v>
@@ -10656,13 +10656,13 @@
         <v>253</v>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C248" t="n">
         <v>7896</v>
       </c>
       <c r="D248" t="n">
-        <v>6950.333333333333</v>
+        <v>7186.75</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>254</v>
       </c>
       <c r="B249" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C249" t="n">
         <v>31172</v>
       </c>
       <c r="D249" t="n">
-        <v>12309.75</v>
+        <v>14405.55555555555</v>
       </c>
       <c r="E249" t="n">
         <v>7</v>
@@ -10702,13 +10702,13 @@
         <v>255</v>
       </c>
       <c r="B250" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C250" t="n">
         <v>30534</v>
       </c>
       <c r="D250" t="n">
-        <v>12876.375</v>
+        <v>13587.18181818182</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -10725,13 +10725,13 @@
         <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C251" t="n">
         <v>7948</v>
       </c>
       <c r="D251" t="n">
-        <v>6985</v>
+        <v>7225.75</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
@@ -10840,13 +10840,13 @@
         <v>261</v>
       </c>
       <c r="B256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C256" t="n">
         <v>31078</v>
       </c>
       <c r="D256" t="n">
-        <v>23371.33333333333</v>
+        <v>25298</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
@@ -10909,13 +10909,13 @@
         <v>264</v>
       </c>
       <c r="B259" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C259" t="n">
         <v>7957</v>
       </c>
       <c r="D259" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E259" t="n">
         <v>1</v>
@@ -10932,13 +10932,13 @@
         <v>265</v>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
         <v>7950</v>
       </c>
       <c r="D260" t="n">
-        <v>6985</v>
+        <v>7226.25</v>
       </c>
       <c r="E260" t="n">
         <v>1</v>
@@ -10955,13 +10955,13 @@
         <v>266</v>
       </c>
       <c r="B261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C261" t="n">
         <v>7958</v>
       </c>
       <c r="D261" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E261" t="n">
         <v>1</v>
@@ -10978,13 +10978,13 @@
         <v>267</v>
       </c>
       <c r="B262" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C262" t="n">
         <v>7931</v>
       </c>
       <c r="D262" t="n">
-        <v>6973.666666666667</v>
+        <v>7213</v>
       </c>
       <c r="E262" t="n">
         <v>1</v>
@@ -11001,7 +11001,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C263" t="n">
         <v>7952</v>
@@ -11024,13 +11024,13 @@
         <v>269</v>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C264" t="n">
         <v>7959</v>
       </c>
       <c r="D264" t="n">
-        <v>7225.5</v>
+        <v>7368.8</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -11047,13 +11047,13 @@
         <v>270</v>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C265" t="n">
         <v>7952</v>
       </c>
       <c r="D265" t="n">
-        <v>6505</v>
+        <v>6794.4</v>
       </c>
       <c r="E265" t="n">
         <v>1</v>
@@ -11070,13 +11070,13 @@
         <v>271</v>
       </c>
       <c r="B266" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C266" t="n">
         <v>7913</v>
       </c>
       <c r="D266" t="n">
-        <v>6961.666666666667</v>
+        <v>7199.5</v>
       </c>
       <c r="E266" t="n">
         <v>1</v>
@@ -11093,13 +11093,13 @@
         <v>272</v>
       </c>
       <c r="B267" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C267" t="n">
         <v>7959</v>
       </c>
       <c r="D267" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E267" t="n">
         <v>1</v>
@@ -11139,7 +11139,7 @@
         <v>274</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C269" t="n">
         <v>7958</v>
@@ -11162,13 +11162,13 @@
         <v>275</v>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C270" t="n">
         <v>7958</v>
       </c>
       <c r="D270" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -11185,13 +11185,13 @@
         <v>276</v>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C271" t="n">
         <v>31039</v>
       </c>
       <c r="D271" t="n">
-        <v>21143</v>
+        <v>23340.44444444445</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
@@ -11208,13 +11208,13 @@
         <v>277</v>
       </c>
       <c r="B272" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
         <v>7937</v>
       </c>
       <c r="D272" t="n">
-        <v>6497.5</v>
+        <v>6785.4</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
@@ -11231,7 +11231,7 @@
         <v>278</v>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C273" t="n">
         <v>7955</v>
@@ -11254,13 +11254,13 @@
         <v>279</v>
       </c>
       <c r="B274" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C274" t="n">
         <v>31087</v>
       </c>
       <c r="D274" t="n">
-        <v>18916</v>
+        <v>21350.2</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -11277,13 +11277,13 @@
         <v>280</v>
       </c>
       <c r="B275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C275" t="n">
         <v>7775</v>
       </c>
       <c r="D275" t="n">
-        <v>6869.666666666667</v>
+        <v>7096</v>
       </c>
       <c r="E275" t="n">
         <v>1</v>
@@ -11300,13 +11300,13 @@
         <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C276" t="n">
         <v>7986</v>
       </c>
       <c r="D276" t="n">
-        <v>7010.333333333333</v>
+        <v>7254.25</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
@@ -11323,13 +11323,13 @@
         <v>282</v>
       </c>
       <c r="B277" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C277" t="n">
         <v>7949</v>
       </c>
       <c r="D277" t="n">
-        <v>6985.666666666667</v>
+        <v>7226.5</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -11346,13 +11346,13 @@
         <v>283</v>
       </c>
       <c r="B278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C278" t="n">
         <v>7948</v>
       </c>
       <c r="D278" t="n">
-        <v>6984.666666666667</v>
+        <v>7225.5</v>
       </c>
       <c r="E278" t="n">
         <v>1</v>
@@ -11369,13 +11369,13 @@
         <v>284</v>
       </c>
       <c r="B279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C279" t="n">
         <v>7737</v>
       </c>
       <c r="D279" t="n">
-        <v>6844.333333333333</v>
+        <v>7067.5</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
@@ -11392,13 +11392,13 @@
         <v>285</v>
       </c>
       <c r="B280" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C280" t="n">
         <v>7878</v>
       </c>
       <c r="D280" t="n">
-        <v>6938.333333333333</v>
+        <v>7173.25</v>
       </c>
       <c r="E280" t="n">
         <v>1</v>
@@ -11415,13 +11415,13 @@
         <v>286</v>
       </c>
       <c r="B281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C281" t="n">
         <v>7959</v>
       </c>
       <c r="D281" t="n">
-        <v>7813</v>
+        <v>7849.5</v>
       </c>
       <c r="E281" t="n">
         <v>1</v>
@@ -11438,13 +11438,13 @@
         <v>287</v>
       </c>
       <c r="B282" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C282" t="n">
         <v>7898</v>
       </c>
       <c r="D282" t="n">
-        <v>6951.666666666667</v>
+        <v>7188.25</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -11507,13 +11507,13 @@
         <v>290</v>
       </c>
       <c r="B285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C285" t="n">
         <v>7919</v>
       </c>
       <c r="D285" t="n">
-        <v>6965.666666666667</v>
+        <v>7204</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
@@ -11530,7 +11530,7 @@
         <v>291</v>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C286" t="n">
         <v>7936</v>
@@ -11553,13 +11553,13 @@
         <v>292</v>
       </c>
       <c r="B287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C287" t="n">
         <v>7958</v>
       </c>
       <c r="D287" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -11576,13 +11576,13 @@
         <v>293</v>
       </c>
       <c r="B288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C288" t="n">
         <v>7957</v>
       </c>
       <c r="D288" t="n">
-        <v>6991</v>
+        <v>7232.5</v>
       </c>
       <c r="E288" t="n">
         <v>1</v>
@@ -11668,13 +11668,13 @@
         <v>297</v>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C292" t="n">
         <v>31163</v>
       </c>
       <c r="D292" t="n">
-        <v>22460.33333333333</v>
+        <v>24636</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -11783,13 +11783,13 @@
         <v>302</v>
       </c>
       <c r="B297" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C297" t="n">
         <v>7955</v>
       </c>
       <c r="D297" t="n">
-        <v>7374.4</v>
+        <v>7539.857142857143</v>
       </c>
       <c r="E297" t="n">
         <v>2</v>
@@ -11875,13 +11875,13 @@
         <v>306</v>
       </c>
       <c r="B301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C301" t="n">
         <v>7954</v>
       </c>
       <c r="D301" t="n">
-        <v>6989</v>
+        <v>7230.25</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
@@ -11898,13 +11898,13 @@
         <v>307</v>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C302" t="n">
         <v>7957</v>
       </c>
       <c r="D302" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -11944,7 +11944,7 @@
         <v>309</v>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C304" t="n">
         <v>30987</v>
@@ -11990,13 +11990,13 @@
         <v>311</v>
       </c>
       <c r="B306" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
         <v>7957</v>
       </c>
       <c r="D306" t="n">
-        <v>7376.8</v>
+        <v>7542.428571428572</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -12013,13 +12013,13 @@
         <v>312</v>
       </c>
       <c r="B307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C307" t="n">
         <v>7957</v>
       </c>
       <c r="D307" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E307" t="n">
         <v>1</v>
@@ -12059,13 +12059,13 @@
         <v>314</v>
       </c>
       <c r="B309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C309" t="n">
         <v>7953</v>
       </c>
       <c r="D309" t="n">
-        <v>6988.333333333333</v>
+        <v>7229.5</v>
       </c>
       <c r="E309" t="n">
         <v>1</v>
@@ -12082,13 +12082,13 @@
         <v>315</v>
       </c>
       <c r="B310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C310" t="n">
         <v>7956</v>
       </c>
       <c r="D310" t="n">
-        <v>6990</v>
+        <v>7231.5</v>
       </c>
       <c r="E310" t="n">
         <v>1</v>
@@ -12105,13 +12105,13 @@
         <v>316</v>
       </c>
       <c r="B311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C311" t="n">
         <v>7936</v>
       </c>
       <c r="D311" t="n">
-        <v>6977</v>
+        <v>7216.75</v>
       </c>
       <c r="E311" t="n">
         <v>1</v>
@@ -12128,13 +12128,13 @@
         <v>317</v>
       </c>
       <c r="B312" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C312" t="n">
         <v>7958</v>
       </c>
       <c r="D312" t="n">
-        <v>6798.2</v>
+        <v>6991.5</v>
       </c>
       <c r="E312" t="n">
         <v>1</v>
@@ -12151,13 +12151,13 @@
         <v>318</v>
       </c>
       <c r="B313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C313" t="n">
         <v>7952</v>
       </c>
       <c r="D313" t="n">
-        <v>6987.333333333333</v>
+        <v>7228.5</v>
       </c>
       <c r="E313" t="n">
         <v>1</v>
@@ -12220,13 +12220,13 @@
         <v>321</v>
       </c>
       <c r="B316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C316" t="n">
         <v>7956</v>
       </c>
       <c r="D316" t="n">
-        <v>6990.333333333333</v>
+        <v>7231.75</v>
       </c>
       <c r="E316" t="n">
         <v>1</v>
@@ -12243,7 +12243,7 @@
         <v>322</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C317" t="n">
         <v>7912</v>
@@ -12266,13 +12266,13 @@
         <v>323</v>
       </c>
       <c r="B318" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C318" t="n">
         <v>7958</v>
       </c>
       <c r="D318" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
@@ -12312,13 +12312,13 @@
         <v>325</v>
       </c>
       <c r="B320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C320" t="n">
         <v>7957</v>
       </c>
       <c r="D320" t="n">
-        <v>6991</v>
+        <v>7232.5</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -12335,13 +12335,13 @@
         <v>326</v>
       </c>
       <c r="B321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C321" t="n">
         <v>7955</v>
       </c>
       <c r="D321" t="n">
-        <v>6989.333333333333</v>
+        <v>7230.75</v>
       </c>
       <c r="E321" t="n">
         <v>1</v>
@@ -12358,13 +12358,13 @@
         <v>327</v>
       </c>
       <c r="B322" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C322" t="n">
         <v>7942</v>
       </c>
       <c r="D322" t="n">
-        <v>7219.5</v>
+        <v>7364</v>
       </c>
       <c r="E322" t="n">
         <v>1</v>
@@ -12404,13 +12404,13 @@
         <v>329</v>
       </c>
       <c r="B324" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C324" t="n">
         <v>7959</v>
       </c>
       <c r="D324" t="n">
-        <v>6006.5</v>
+        <v>7359.8</v>
       </c>
       <c r="E324" t="n">
         <v>1</v>
@@ -12427,13 +12427,13 @@
         <v>330</v>
       </c>
       <c r="B325" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C325" t="n">
         <v>31169</v>
       </c>
       <c r="D325" t="n">
-        <v>18111</v>
+        <v>20722.6</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -12450,7 +12450,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C326" t="n">
         <v>7831</v>
@@ -12473,7 +12473,7 @@
         <v>332</v>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C327" t="n">
         <v>7960</v>
@@ -12519,13 +12519,13 @@
         <v>334</v>
       </c>
       <c r="B329" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C329" t="n">
         <v>7744</v>
       </c>
       <c r="D329" t="n">
-        <v>6849</v>
+        <v>7072.75</v>
       </c>
       <c r="E329" t="n">
         <v>1</v>
@@ -12542,13 +12542,13 @@
         <v>335</v>
       </c>
       <c r="B330" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C330" t="n">
         <v>31102</v>
       </c>
       <c r="D330" t="n">
-        <v>17455.52941176471</v>
+        <v>20052.61904761905</v>
       </c>
       <c r="E330" t="n">
         <v>26</v>
@@ -12565,7 +12565,7 @@
         <v>336</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C331" t="n">
         <v>7957</v>
@@ -12611,7 +12611,7 @@
         <v>338</v>
       </c>
       <c r="B333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C333" t="n">
         <v>7952</v>
@@ -12657,13 +12657,13 @@
         <v>340</v>
       </c>
       <c r="B335" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C335" t="n">
         <v>7959</v>
       </c>
       <c r="D335" t="n">
-        <v>7225</v>
+        <v>7368.2</v>
       </c>
       <c r="E335" t="n">
         <v>1</v>
@@ -12749,7 +12749,7 @@
         <v>344</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C339" t="n">
         <v>7954</v>
@@ -12772,13 +12772,13 @@
         <v>345</v>
       </c>
       <c r="B340" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C340" t="n">
         <v>7953</v>
       </c>
       <c r="D340" t="n">
-        <v>6988</v>
+        <v>7229.25</v>
       </c>
       <c r="E340" t="n">
         <v>1</v>
@@ -12841,13 +12841,13 @@
         <v>348</v>
       </c>
       <c r="B343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C343" t="n">
         <v>7882</v>
       </c>
       <c r="D343" t="n">
-        <v>6941</v>
+        <v>7176.25</v>
       </c>
       <c r="E343" t="n">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>351</v>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C346" t="n">
         <v>31102</v>
@@ -12956,7 +12956,7 @@
         <v>353</v>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C348" t="n">
         <v>7903</v>
@@ -12979,13 +12979,13 @@
         <v>354</v>
       </c>
       <c r="B349" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C349" t="n">
         <v>7959</v>
       </c>
       <c r="D349" t="n">
-        <v>7369.8</v>
+        <v>7464.166666666667</v>
       </c>
       <c r="E349" t="n">
         <v>1</v>
@@ -13002,7 +13002,7 @@
         <v>355</v>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C350" t="n">
         <v>7950</v>
@@ -13025,7 +13025,7 @@
         <v>356</v>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C351" t="n">
         <v>7932</v>
@@ -13094,7 +13094,7 @@
         <v>359</v>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C354" t="n">
         <v>7958</v>
@@ -13117,7 +13117,7 @@
         <v>360</v>
       </c>
       <c r="B355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C355" t="n">
         <v>7904</v>
@@ -13140,13 +13140,13 @@
         <v>361</v>
       </c>
       <c r="B356" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C356" t="n">
         <v>30471</v>
       </c>
       <c r="D356" t="n">
-        <v>21999.66666666667</v>
+        <v>24117.5</v>
       </c>
       <c r="E356" t="n">
         <v>1</v>
@@ -13163,7 +13163,7 @@
         <v>362</v>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C357" t="n">
         <v>7857</v>
@@ -13209,13 +13209,13 @@
         <v>364</v>
       </c>
       <c r="B359" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C359" t="n">
         <v>7957</v>
       </c>
       <c r="D359" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E359" t="n">
         <v>1</v>
@@ -13232,7 +13232,7 @@
         <v>365</v>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C360" t="n">
         <v>7938</v>
@@ -13255,13 +13255,13 @@
         <v>366</v>
       </c>
       <c r="B361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C361" t="n">
         <v>7939</v>
       </c>
       <c r="D361" t="n">
-        <v>6978.666666666667</v>
+        <v>7218.75</v>
       </c>
       <c r="E361" t="n">
         <v>1</v>
@@ -13301,13 +13301,13 @@
         <v>368</v>
       </c>
       <c r="B363" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C363" t="n">
         <v>7959</v>
       </c>
       <c r="D363" t="n">
-        <v>6830.75</v>
+        <v>7040.1</v>
       </c>
       <c r="E363" t="n">
         <v>1</v>
@@ -13324,13 +13324,13 @@
         <v>369</v>
       </c>
       <c r="B364" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C364" t="n">
         <v>7959</v>
       </c>
       <c r="D364" t="n">
-        <v>7372.6</v>
+        <v>7467.666666666667</v>
       </c>
       <c r="E364" t="n">
         <v>1</v>
@@ -13347,13 +13347,13 @@
         <v>370</v>
       </c>
       <c r="B365" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C365" t="n">
         <v>7957</v>
       </c>
       <c r="D365" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E365" t="n">
         <v>1</v>
@@ -13370,7 +13370,7 @@
         <v>371</v>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C366" t="n">
         <v>7959</v>
@@ -13393,13 +13393,13 @@
         <v>372</v>
       </c>
       <c r="B367" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C367" t="n">
         <v>31170</v>
       </c>
       <c r="D367" t="n">
-        <v>14728</v>
+        <v>15936.75</v>
       </c>
       <c r="E367" t="n">
         <v>1</v>
@@ -13416,7 +13416,7 @@
         <v>373</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C368" t="n">
         <v>7902</v>
@@ -13462,13 +13462,13 @@
         <v>375</v>
       </c>
       <c r="B370" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C370" t="n">
         <v>7958</v>
       </c>
       <c r="D370" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E370" t="n">
         <v>1</v>
@@ -13485,13 +13485,13 @@
         <v>376</v>
       </c>
       <c r="B371" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C371" t="n">
         <v>31104</v>
       </c>
       <c r="D371" t="n">
-        <v>12294.5</v>
+        <v>13741.9</v>
       </c>
       <c r="E371" t="n">
         <v>8</v>
@@ -13531,13 +13531,13 @@
         <v>378</v>
       </c>
       <c r="B373" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C373" t="n">
         <v>7752</v>
       </c>
       <c r="D373" t="n">
-        <v>6854</v>
+        <v>7078.5</v>
       </c>
       <c r="E373" t="n">
         <v>1</v>
@@ -13554,7 +13554,7 @@
         <v>379</v>
       </c>
       <c r="B374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C374" t="n">
         <v>7906</v>
@@ -13577,13 +13577,13 @@
         <v>380</v>
       </c>
       <c r="B375" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C375" t="n">
         <v>31104</v>
       </c>
       <c r="D375" t="n">
-        <v>10936.5</v>
+        <v>12791.85981308411</v>
       </c>
       <c r="E375" t="n">
         <v>32</v>
@@ -13600,13 +13600,13 @@
         <v>381</v>
       </c>
       <c r="B376" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C376" t="n">
         <v>7959</v>
       </c>
       <c r="D376" t="n">
-        <v>5541.4</v>
+        <v>5940.5</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -13761,7 +13761,7 @@
         <v>388</v>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C383" t="n">
         <v>7861</v>
@@ -13991,13 +13991,13 @@
         <v>398</v>
       </c>
       <c r="B393" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C393" t="n">
         <v>7959</v>
       </c>
       <c r="D393" t="n">
-        <v>6060.75</v>
+        <v>7370</v>
       </c>
       <c r="E393" t="n">
         <v>1</v>
@@ -14037,13 +14037,13 @@
         <v>400</v>
       </c>
       <c r="B395" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C395" t="n">
         <v>7959</v>
       </c>
       <c r="D395" t="n">
-        <v>6797.6</v>
+        <v>6990.666666666667</v>
       </c>
       <c r="E395" t="n">
         <v>1</v>
@@ -14060,7 +14060,7 @@
         <v>401</v>
       </c>
       <c r="B396" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C396" t="n">
         <v>7957</v>
@@ -14106,13 +14106,13 @@
         <v>403</v>
       </c>
       <c r="B398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C398" t="n">
         <v>7951</v>
       </c>
       <c r="D398" t="n">
-        <v>6986.666666666667</v>
+        <v>7227.75</v>
       </c>
       <c r="E398" t="n">
         <v>0</v>
@@ -14152,13 +14152,13 @@
         <v>405</v>
       </c>
       <c r="B400" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C400" t="n">
         <v>7958</v>
       </c>
       <c r="D400" t="n">
-        <v>7232.5</v>
+        <v>7377.4</v>
       </c>
       <c r="E400" t="n">
         <v>1</v>
@@ -14175,13 +14175,13 @@
         <v>406</v>
       </c>
       <c r="B401" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C401" t="n">
         <v>7957</v>
       </c>
       <c r="D401" t="n">
-        <v>6218</v>
+        <v>6507.833333333333</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -14198,13 +14198,13 @@
         <v>407</v>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C402" t="n">
         <v>31134</v>
       </c>
       <c r="D402" t="n">
-        <v>16619.66666666667</v>
+        <v>19248.09090909091</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -14221,7 +14221,7 @@
         <v>408</v>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C403" t="n">
         <v>1148</v>
@@ -14267,13 +14267,13 @@
         <v>410</v>
       </c>
       <c r="B405" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C405" t="n">
         <v>7959</v>
       </c>
       <c r="D405" t="n">
-        <v>7378.6</v>
+        <v>7475.166666666667</v>
       </c>
       <c r="E405" t="n">
         <v>1</v>
@@ -14290,13 +14290,13 @@
         <v>411</v>
       </c>
       <c r="B406" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C406" t="n">
         <v>31170</v>
       </c>
       <c r="D406" t="n">
-        <v>10582.90476190476</v>
+        <v>12123.2</v>
       </c>
       <c r="E406" t="n">
         <v>18</v>
@@ -14313,13 +14313,13 @@
         <v>412</v>
       </c>
       <c r="B407" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C407" t="n">
         <v>7866</v>
       </c>
       <c r="D407" t="n">
-        <v>6930</v>
+        <v>7164</v>
       </c>
       <c r="E407" t="n">
         <v>0</v>
@@ -14359,7 +14359,7 @@
         <v>414</v>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C409" t="n">
         <v>7958</v>
@@ -14382,13 +14382,13 @@
         <v>415</v>
       </c>
       <c r="B410" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C410" t="n">
         <v>7957</v>
       </c>
       <c r="D410" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E410" t="n">
         <v>1</v>
@@ -14405,13 +14405,13 @@
         <v>416</v>
       </c>
       <c r="B411" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C411" t="n">
         <v>7957</v>
       </c>
       <c r="D411" t="n">
-        <v>7357.4</v>
+        <v>7521.714285714285</v>
       </c>
       <c r="E411" t="n">
         <v>1</v>
@@ -14428,13 +14428,13 @@
         <v>417</v>
       </c>
       <c r="B412" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C412" t="n">
         <v>7958</v>
       </c>
       <c r="D412" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E412" t="n">
         <v>1</v>
@@ -14451,13 +14451,13 @@
         <v>418</v>
       </c>
       <c r="B413" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C413" t="n">
         <v>7959</v>
       </c>
       <c r="D413" t="n">
-        <v>7379</v>
+        <v>7544.714285714285</v>
       </c>
       <c r="E413" t="n">
         <v>1</v>
@@ -14474,7 +14474,7 @@
         <v>419</v>
       </c>
       <c r="B414" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C414" t="n">
         <v>7954</v>
@@ -14497,13 +14497,13 @@
         <v>420</v>
       </c>
       <c r="B415" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C415" t="n">
         <v>7959</v>
       </c>
       <c r="D415" t="n">
-        <v>7225</v>
+        <v>7368.2</v>
       </c>
       <c r="E415" t="n">
         <v>1</v>
@@ -14543,13 +14543,13 @@
         <v>422</v>
       </c>
       <c r="B417" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C417" t="n">
         <v>7959</v>
       </c>
       <c r="D417" t="n">
-        <v>7228</v>
+        <v>7371.8</v>
       </c>
       <c r="E417" t="n">
         <v>1</v>
@@ -14566,13 +14566,13 @@
         <v>423</v>
       </c>
       <c r="B418" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C418" t="n">
         <v>7959</v>
       </c>
       <c r="D418" t="n">
-        <v>7227.5</v>
+        <v>7371.2</v>
       </c>
       <c r="E418" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>424</v>
       </c>
       <c r="B419" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C419" t="n">
         <v>7948</v>
@@ -14635,13 +14635,13 @@
         <v>426</v>
       </c>
       <c r="B421" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C421" t="n">
         <v>7940</v>
       </c>
       <c r="D421" t="n">
-        <v>6979.666666666667</v>
+        <v>7219.75</v>
       </c>
       <c r="E421" t="n">
         <v>1</v>
@@ -14681,13 +14681,13 @@
         <v>428</v>
       </c>
       <c r="B423" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C423" t="n">
         <v>7959</v>
       </c>
       <c r="D423" t="n">
-        <v>7221</v>
+        <v>7363.4</v>
       </c>
       <c r="E423" t="n">
         <v>1</v>
@@ -14704,13 +14704,13 @@
         <v>429</v>
       </c>
       <c r="B424" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C424" t="n">
         <v>7959</v>
       </c>
       <c r="D424" t="n">
-        <v>7232.5</v>
+        <v>7377.2</v>
       </c>
       <c r="E424" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         <v>7958</v>
       </c>
       <c r="D425" t="n">
-        <v>4349.5</v>
+        <v>6508</v>
       </c>
       <c r="E425" t="n">
         <v>1</v>
@@ -14750,13 +14750,13 @@
         <v>431</v>
       </c>
       <c r="B426" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C426" t="n">
         <v>7959</v>
       </c>
       <c r="D426" t="n">
-        <v>7223.5</v>
+        <v>7366.4</v>
       </c>
       <c r="E426" t="n">
         <v>1</v>
@@ -14796,13 +14796,13 @@
         <v>433</v>
       </c>
       <c r="B428" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C428" t="n">
         <v>7959</v>
       </c>
       <c r="D428" t="n">
-        <v>7357.4</v>
+        <v>7448.666666666667</v>
       </c>
       <c r="E428" t="n">
         <v>1</v>
@@ -14917,7 +14917,7 @@
         <v>5059</v>
       </c>
       <c r="D433" t="n">
-        <v>4426</v>
+        <v>5058.333333333333</v>
       </c>
       <c r="E433" t="n">
         <v>1</v>
@@ -14940,7 +14940,7 @@
         <v>5058</v>
       </c>
       <c r="D434" t="n">
-        <v>2911.222222222222</v>
+        <v>3266.777777777778</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>6941</v>
       </c>
       <c r="D435" t="n">
-        <v>5206.666666666667</v>
+        <v>5681.333333333333</v>
       </c>
       <c r="E435" t="n">
         <v>1</v>
@@ -15009,7 +15009,7 @@
         <v>5057</v>
       </c>
       <c r="D437" t="n">
-        <v>2091.25</v>
+        <v>2197.375</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -15026,13 +15026,13 @@
         <v>443</v>
       </c>
       <c r="B438" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C438" t="n">
         <v>7958</v>
       </c>
       <c r="D438" t="n">
-        <v>6752</v>
+        <v>6933.666666666667</v>
       </c>
       <c r="E438" t="n">
         <v>2</v>
@@ -15049,13 +15049,13 @@
         <v>444</v>
       </c>
       <c r="B439" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C439" t="n">
         <v>7835</v>
       </c>
       <c r="D439" t="n">
-        <v>6909.333333333333</v>
+        <v>7140.75</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>446</v>
       </c>
       <c r="B441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C441" t="n">
         <v>7887</v>
@@ -15118,13 +15118,13 @@
         <v>447</v>
       </c>
       <c r="B442" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C442" t="n">
         <v>7957</v>
       </c>
       <c r="D442" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E442" t="n">
         <v>1</v>
@@ -15164,13 +15164,13 @@
         <v>449</v>
       </c>
       <c r="B444" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C444" t="n">
         <v>7959</v>
       </c>
       <c r="D444" t="n">
-        <v>6793.2</v>
+        <v>6985.166666666667</v>
       </c>
       <c r="E444" t="n">
         <v>1</v>
@@ -15187,13 +15187,13 @@
         <v>450</v>
       </c>
       <c r="B445" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C445" t="n">
         <v>7958</v>
       </c>
       <c r="D445" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E445" t="n">
         <v>1</v>
@@ -15210,7 +15210,7 @@
         <v>451</v>
       </c>
       <c r="B446" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C446" t="n">
         <v>7957</v>
@@ -15236,10 +15236,10 @@
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>337</v>
+        <v>5054</v>
       </c>
       <c r="D447" t="n">
-        <v>337</v>
+        <v>5054</v>
       </c>
       <c r="E447" t="n">
         <v>0</v>
@@ -15256,7 +15256,7 @@
         <v>453</v>
       </c>
       <c r="B448" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C448" t="n">
         <v>7954</v>
@@ -15279,13 +15279,13 @@
         <v>454</v>
       </c>
       <c r="B449" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C449" t="n">
         <v>7957</v>
       </c>
       <c r="D449" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E449" t="n">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>456</v>
       </c>
       <c r="B451" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C451" t="n">
         <v>7813</v>
@@ -15348,13 +15348,13 @@
         <v>457</v>
       </c>
       <c r="B452" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C452" t="n">
         <v>7958</v>
       </c>
       <c r="D452" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E452" t="n">
         <v>1</v>
@@ -15371,13 +15371,13 @@
         <v>458</v>
       </c>
       <c r="B453" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C453" t="n">
         <v>30187</v>
       </c>
       <c r="D453" t="n">
-        <v>21811</v>
+        <v>23905</v>
       </c>
       <c r="E453" t="n">
         <v>1</v>
@@ -15394,13 +15394,13 @@
         <v>459</v>
       </c>
       <c r="B454" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C454" t="n">
         <v>7621</v>
       </c>
       <c r="D454" t="n">
-        <v>6767</v>
+        <v>6980.5</v>
       </c>
       <c r="E454" t="n">
         <v>1</v>
@@ -15463,13 +15463,13 @@
         <v>462</v>
       </c>
       <c r="B457" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C457" t="n">
         <v>7884</v>
       </c>
       <c r="D457" t="n">
-        <v>6632</v>
+        <v>7177.5</v>
       </c>
       <c r="E457" t="n">
         <v>1</v>
@@ -15486,13 +15486,13 @@
         <v>463</v>
       </c>
       <c r="B458" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C458" t="n">
         <v>7914</v>
       </c>
       <c r="D458" t="n">
-        <v>6486.25</v>
+        <v>6771.8</v>
       </c>
       <c r="E458" t="n">
         <v>1</v>
@@ -15509,13 +15509,13 @@
         <v>464</v>
       </c>
       <c r="B459" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C459" t="n">
         <v>30928</v>
       </c>
       <c r="D459" t="n">
-        <v>15406</v>
+        <v>17993</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>465</v>
       </c>
       <c r="B460" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C460" t="n">
         <v>7958</v>
@@ -15578,13 +15578,13 @@
         <v>467</v>
       </c>
       <c r="B462" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C462" t="n">
         <v>7957</v>
       </c>
       <c r="D462" t="n">
-        <v>7502</v>
+        <v>7615.75</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
@@ -15601,13 +15601,13 @@
         <v>468</v>
       </c>
       <c r="B463" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C463" t="n">
         <v>7957</v>
       </c>
       <c r="D463" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -15624,13 +15624,13 @@
         <v>469</v>
       </c>
       <c r="B464" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C464" t="n">
         <v>7800</v>
       </c>
       <c r="D464" t="n">
-        <v>6886.333333333333</v>
+        <v>7114.75</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -15647,7 +15647,7 @@
         <v>470</v>
       </c>
       <c r="B465" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C465" t="n">
         <v>7957</v>
@@ -15670,13 +15670,13 @@
         <v>471</v>
       </c>
       <c r="B466" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C466" t="n">
         <v>7958</v>
       </c>
       <c r="D466" t="n">
-        <v>6538.2</v>
+        <v>7539.428571428572</v>
       </c>
       <c r="E466" t="n">
         <v>2</v>
@@ -15693,7 +15693,7 @@
         <v>472</v>
       </c>
       <c r="B467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C467" t="n">
         <v>7958</v>
@@ -15716,7 +15716,7 @@
         <v>473</v>
       </c>
       <c r="B468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C468" t="n">
         <v>7950</v>
@@ -15739,13 +15739,13 @@
         <v>474</v>
       </c>
       <c r="B469" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C469" t="n">
         <v>7765</v>
       </c>
       <c r="D469" t="n">
-        <v>6863</v>
+        <v>7088.5</v>
       </c>
       <c r="E469" t="n">
         <v>1</v>
@@ -15762,13 +15762,13 @@
         <v>475</v>
       </c>
       <c r="B470" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C470" t="n">
         <v>7959</v>
       </c>
       <c r="D470" t="n">
-        <v>7230.5</v>
+        <v>7374.8</v>
       </c>
       <c r="E470" t="n">
         <v>1</v>
@@ -15785,13 +15785,13 @@
         <v>476</v>
       </c>
       <c r="B471" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C471" t="n">
         <v>7958</v>
       </c>
       <c r="D471" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E471" t="n">
         <v>1</v>
@@ -15831,13 +15831,13 @@
         <v>478</v>
       </c>
       <c r="B473" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C473" t="n">
         <v>7940</v>
       </c>
       <c r="D473" t="n">
-        <v>6979.666666666667</v>
+        <v>7219.75</v>
       </c>
       <c r="E473" t="n">
         <v>1</v>
@@ -15854,7 +15854,7 @@
         <v>479</v>
       </c>
       <c r="B474" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C474" t="n">
         <v>7951</v>
@@ -15900,13 +15900,13 @@
         <v>481</v>
       </c>
       <c r="B476" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C476" t="n">
         <v>7804</v>
       </c>
       <c r="D476" t="n">
-        <v>6889</v>
+        <v>7117.75</v>
       </c>
       <c r="E476" t="n">
         <v>1</v>
@@ -15923,13 +15923,13 @@
         <v>482</v>
       </c>
       <c r="B477" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C477" t="n">
         <v>7936</v>
       </c>
       <c r="D477" t="n">
-        <v>6209.4</v>
+        <v>6497.166666666667</v>
       </c>
       <c r="E477" t="n">
         <v>3</v>
@@ -15946,7 +15946,7 @@
         <v>483</v>
       </c>
       <c r="B478" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C478" t="n">
         <v>7958</v>
@@ -15969,13 +15969,13 @@
         <v>484</v>
       </c>
       <c r="B479" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C479" t="n">
         <v>7694</v>
       </c>
       <c r="D479" t="n">
-        <v>5603</v>
+        <v>6125.75</v>
       </c>
       <c r="E479" t="n">
         <v>1</v>
@@ -15992,13 +15992,13 @@
         <v>485</v>
       </c>
       <c r="B480" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C480" t="n">
         <v>7908</v>
       </c>
       <c r="D480" t="n">
-        <v>6955.666666666667</v>
+        <v>7193.75</v>
       </c>
       <c r="E480" t="n">
         <v>1</v>
@@ -16015,13 +16015,13 @@
         <v>486</v>
       </c>
       <c r="B481" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C481" t="n">
         <v>7949</v>
       </c>
       <c r="D481" t="n">
-        <v>6985.333333333333</v>
+        <v>7226.25</v>
       </c>
       <c r="E481" t="n">
         <v>3</v>
@@ -16067,7 +16067,7 @@
         <v>7958</v>
       </c>
       <c r="D483" t="n">
-        <v>5220.5</v>
+        <v>6508</v>
       </c>
       <c r="E483" t="n">
         <v>1</v>
@@ -16084,13 +16084,13 @@
         <v>489</v>
       </c>
       <c r="B484" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C484" t="n">
         <v>31152</v>
       </c>
       <c r="D484" t="n">
-        <v>20283.8</v>
+        <v>22095.16666666667</v>
       </c>
       <c r="E484" t="n">
         <v>2</v>
@@ -16130,13 +16130,13 @@
         <v>491</v>
       </c>
       <c r="B486" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C486" t="n">
         <v>7958</v>
       </c>
       <c r="D486" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E486" t="n">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>492</v>
       </c>
       <c r="B487" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C487" t="n">
         <v>7863</v>
@@ -16176,7 +16176,7 @@
         <v>493</v>
       </c>
       <c r="B488" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C488" t="n">
         <v>7911</v>
@@ -16199,13 +16199,13 @@
         <v>494</v>
       </c>
       <c r="B489" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C489" t="n">
         <v>7958</v>
       </c>
       <c r="D489" t="n">
-        <v>7472.833333333333</v>
+        <v>7541.428571428572</v>
       </c>
       <c r="E489" t="n">
         <v>2</v>
@@ -16222,13 +16222,13 @@
         <v>495</v>
       </c>
       <c r="B490" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C490" t="n">
         <v>7957</v>
       </c>
       <c r="D490" t="n">
-        <v>6108.090909090909</v>
+        <v>6390.846153846154</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -16268,13 +16268,13 @@
         <v>497</v>
       </c>
       <c r="B492" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C492" t="n">
         <v>7959</v>
       </c>
       <c r="D492" t="n">
-        <v>7229</v>
+        <v>7373</v>
       </c>
       <c r="E492" t="n">
         <v>1</v>
@@ -16291,13 +16291,13 @@
         <v>498</v>
       </c>
       <c r="B493" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C493" t="n">
         <v>31104</v>
       </c>
       <c r="D493" t="n">
-        <v>30975.33333333333</v>
+        <v>30959.25</v>
       </c>
       <c r="E493" t="n">
         <v>2</v>
@@ -16317,10 +16317,10 @@
         <v>2</v>
       </c>
       <c r="C494" t="n">
-        <v>4951</v>
+        <v>5059</v>
       </c>
       <c r="D494" t="n">
-        <v>2846</v>
+        <v>5059</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
@@ -16337,13 +16337,13 @@
         <v>500</v>
       </c>
       <c r="B495" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C495" t="n">
         <v>7959</v>
       </c>
       <c r="D495" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E495" t="n">
         <v>1</v>
@@ -16383,7 +16383,7 @@
         <v>502</v>
       </c>
       <c r="B497" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C497" t="n">
         <v>7946</v>
@@ -16406,13 +16406,13 @@
         <v>503</v>
       </c>
       <c r="B498" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C498" t="n">
         <v>7832</v>
       </c>
       <c r="D498" t="n">
-        <v>6907.666666666667</v>
+        <v>7138.75</v>
       </c>
       <c r="E498" t="n">
         <v>1</v>
@@ -16452,13 +16452,13 @@
         <v>505</v>
       </c>
       <c r="B500" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C500" t="n">
         <v>7958</v>
       </c>
       <c r="D500" t="n">
-        <v>7216</v>
+        <v>7357.6</v>
       </c>
       <c r="E500" t="n">
         <v>1</v>
@@ -16521,13 +16521,13 @@
         <v>508</v>
       </c>
       <c r="B503" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C503" t="n">
         <v>7956</v>
       </c>
       <c r="D503" t="n">
-        <v>6990.333333333333</v>
+        <v>7231.75</v>
       </c>
       <c r="E503" t="n">
         <v>1</v>
@@ -16544,13 +16544,13 @@
         <v>509</v>
       </c>
       <c r="B504" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C504" t="n">
         <v>7744</v>
       </c>
       <c r="D504" t="n">
-        <v>6849</v>
+        <v>7072.75</v>
       </c>
       <c r="E504" t="n">
         <v>2</v>
@@ -16567,13 +16567,13 @@
         <v>510</v>
       </c>
       <c r="B505" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C505" t="n">
         <v>35420</v>
       </c>
       <c r="D505" t="n">
-        <v>35043.33333333334</v>
+        <v>34996.25</v>
       </c>
       <c r="E505" t="n">
         <v>1</v>
@@ -16590,13 +16590,13 @@
         <v>511</v>
       </c>
       <c r="B506" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C506" t="n">
         <v>31170</v>
       </c>
       <c r="D506" t="n">
-        <v>14243.66666666667</v>
+        <v>16081.06666666667</v>
       </c>
       <c r="E506" t="n">
         <v>6</v>
@@ -16613,13 +16613,13 @@
         <v>512</v>
       </c>
       <c r="B507" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C507" t="n">
         <v>7958</v>
       </c>
       <c r="D507" t="n">
-        <v>6792</v>
+        <v>6983.833333333333</v>
       </c>
       <c r="E507" t="n">
         <v>2</v>
@@ -16636,13 +16636,13 @@
         <v>513</v>
       </c>
       <c r="B508" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C508" t="n">
         <v>7931</v>
       </c>
       <c r="D508" t="n">
-        <v>6973.666666666667</v>
+        <v>7213</v>
       </c>
       <c r="E508" t="n">
         <v>1</v>
@@ -16659,13 +16659,13 @@
         <v>514</v>
       </c>
       <c r="B509" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C509" t="n">
         <v>7958</v>
       </c>
       <c r="D509" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E509" t="n">
         <v>1</v>
@@ -16682,7 +16682,7 @@
         <v>515</v>
       </c>
       <c r="B510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C510" t="n">
         <v>7946</v>
@@ -16751,13 +16751,13 @@
         <v>518</v>
       </c>
       <c r="B513" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C513" t="n">
         <v>7959</v>
       </c>
       <c r="D513" t="n">
-        <v>7358.2</v>
+        <v>7449.666666666667</v>
       </c>
       <c r="E513" t="n">
         <v>1</v>
@@ -16774,13 +16774,13 @@
         <v>519</v>
       </c>
       <c r="B514" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C514" t="n">
         <v>7940</v>
       </c>
       <c r="D514" t="n">
-        <v>6979</v>
+        <v>7219.25</v>
       </c>
       <c r="E514" t="n">
         <v>1</v>
@@ -16820,13 +16820,13 @@
         <v>521</v>
       </c>
       <c r="B516" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C516" t="n">
         <v>7956</v>
       </c>
       <c r="D516" t="n">
-        <v>6990.333333333333</v>
+        <v>7231.75</v>
       </c>
       <c r="E516" t="n">
         <v>1</v>
@@ -16843,13 +16843,13 @@
         <v>522</v>
       </c>
       <c r="B517" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C517" t="n">
         <v>31090</v>
       </c>
       <c r="D517" t="n">
-        <v>22413</v>
+        <v>24582.25</v>
       </c>
       <c r="E517" t="n">
         <v>1</v>
@@ -16866,7 +16866,7 @@
         <v>523</v>
       </c>
       <c r="B518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C518" t="n">
         <v>31097</v>
@@ -16889,13 +16889,13 @@
         <v>524</v>
       </c>
       <c r="B519" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C519" t="n">
         <v>7953</v>
       </c>
       <c r="D519" t="n">
-        <v>6987.666666666667</v>
+        <v>7229</v>
       </c>
       <c r="E519" t="n">
         <v>0</v>
@@ -16912,13 +16912,13 @@
         <v>525</v>
       </c>
       <c r="B520" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C520" t="n">
         <v>7759</v>
       </c>
       <c r="D520" t="n">
-        <v>6859</v>
+        <v>7084</v>
       </c>
       <c r="E520" t="n">
         <v>1</v>
@@ -16935,13 +16935,13 @@
         <v>526</v>
       </c>
       <c r="B521" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C521" t="n">
         <v>7941</v>
       </c>
       <c r="D521" t="n">
-        <v>6980.333333333333</v>
+        <v>7220.5</v>
       </c>
       <c r="E521" t="n">
         <v>1</v>
@@ -16958,13 +16958,13 @@
         <v>527</v>
       </c>
       <c r="B522" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C522" t="n">
         <v>30632</v>
       </c>
       <c r="D522" t="n">
-        <v>22107.66666666667</v>
+        <v>24238.75</v>
       </c>
       <c r="E522" t="n">
         <v>1</v>
@@ -16981,13 +16981,13 @@
         <v>528</v>
       </c>
       <c r="B523" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C523" t="n">
         <v>7957</v>
       </c>
       <c r="D523" t="n">
-        <v>6507.75</v>
+        <v>6797.6</v>
       </c>
       <c r="E523" t="n">
         <v>2</v>
@@ -17027,13 +17027,13 @@
         <v>530</v>
       </c>
       <c r="B525" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C525" t="n">
         <v>31104</v>
       </c>
       <c r="D525" t="n">
-        <v>18806.25</v>
+        <v>21265.8</v>
       </c>
       <c r="E525" t="n">
         <v>1</v>
@@ -17119,13 +17119,13 @@
         <v>534</v>
       </c>
       <c r="B529" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C529" t="n">
         <v>7957</v>
       </c>
       <c r="D529" t="n">
-        <v>7436.166666666667</v>
+        <v>7497.714285714285</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -17142,13 +17142,13 @@
         <v>535</v>
       </c>
       <c r="B530" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C530" t="n">
         <v>7959</v>
       </c>
       <c r="D530" t="n">
-        <v>7223.5</v>
+        <v>7366.4</v>
       </c>
       <c r="E530" t="n">
         <v>1</v>
@@ -17165,13 +17165,13 @@
         <v>536</v>
       </c>
       <c r="B531" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C531" t="n">
         <v>7940</v>
       </c>
       <c r="D531" t="n">
-        <v>5786.333333333333</v>
+        <v>7219.75</v>
       </c>
       <c r="E531" t="n">
         <v>1</v>
@@ -17188,13 +17188,13 @@
         <v>537</v>
       </c>
       <c r="B532" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C532" t="n">
         <v>31172</v>
       </c>
       <c r="D532" t="n">
-        <v>15868.2</v>
+        <v>17531.30769230769</v>
       </c>
       <c r="E532" t="n">
         <v>8</v>
@@ -17211,13 +17211,13 @@
         <v>538</v>
       </c>
       <c r="B533" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C533" t="n">
         <v>7959</v>
       </c>
       <c r="D533" t="n">
-        <v>6249.25</v>
+        <v>7363.4</v>
       </c>
       <c r="E533" t="n">
         <v>1</v>
@@ -17257,13 +17257,13 @@
         <v>540</v>
       </c>
       <c r="B535" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C535" t="n">
         <v>7965</v>
       </c>
       <c r="D535" t="n">
-        <v>6941</v>
+        <v>7026.8</v>
       </c>
       <c r="E535" t="n">
         <v>1</v>
@@ -17303,13 +17303,13 @@
         <v>542</v>
       </c>
       <c r="B537" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C537" t="n">
         <v>7959</v>
       </c>
       <c r="D537" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E537" t="n">
         <v>1</v>
@@ -17326,7 +17326,7 @@
         <v>543</v>
       </c>
       <c r="B538" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C538" t="n">
         <v>7957</v>
@@ -17349,7 +17349,7 @@
         <v>544</v>
       </c>
       <c r="B539" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C539" t="n">
         <v>7912</v>
@@ -17395,13 +17395,13 @@
         <v>546</v>
       </c>
       <c r="B541" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C541" t="n">
         <v>7951</v>
       </c>
       <c r="D541" t="n">
-        <v>6984.666666666667</v>
+        <v>7226.25</v>
       </c>
       <c r="E541" t="n">
         <v>1</v>
@@ -17418,13 +17418,13 @@
         <v>547</v>
       </c>
       <c r="B542" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C542" t="n">
         <v>31102</v>
       </c>
       <c r="D542" t="n">
-        <v>11043</v>
+        <v>13738.77777777778</v>
       </c>
       <c r="E542" t="n">
         <v>7</v>
@@ -17441,7 +17441,7 @@
         <v>548</v>
       </c>
       <c r="B543" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C543" t="n">
         <v>1151</v>
@@ -17464,7 +17464,7 @@
         <v>549</v>
       </c>
       <c r="B544" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C544" t="n">
         <v>7949</v>
@@ -17556,13 +17556,13 @@
         <v>553</v>
       </c>
       <c r="B548" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C548" t="n">
         <v>7958</v>
       </c>
       <c r="D548" t="n">
-        <v>7233</v>
+        <v>7378</v>
       </c>
       <c r="E548" t="n">
         <v>1</v>
@@ -17579,7 +17579,7 @@
         <v>554</v>
       </c>
       <c r="B549" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C549" t="n">
         <v>7958</v>
@@ -17602,13 +17602,13 @@
         <v>555</v>
       </c>
       <c r="B550" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C550" t="n">
         <v>7957</v>
       </c>
       <c r="D550" t="n">
-        <v>6701.428571428572</v>
+        <v>6975.222222222223</v>
       </c>
       <c r="E550" t="n">
         <v>2</v>
@@ -17625,13 +17625,13 @@
         <v>556</v>
       </c>
       <c r="B551" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C551" t="n">
         <v>7987</v>
       </c>
       <c r="D551" t="n">
-        <v>7010.666666666667</v>
+        <v>7254.75</v>
       </c>
       <c r="E551" t="n">
         <v>1</v>
@@ -17648,13 +17648,13 @@
         <v>557</v>
       </c>
       <c r="B552" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C552" t="n">
         <v>31095</v>
       </c>
       <c r="D552" t="n">
-        <v>22416.33333333333</v>
+        <v>24586</v>
       </c>
       <c r="E552" t="n">
         <v>1</v>
@@ -17694,13 +17694,13 @@
         <v>559</v>
       </c>
       <c r="B554" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C554" t="n">
         <v>7956</v>
       </c>
       <c r="D554" t="n">
-        <v>7328.2</v>
+        <v>7490.285714285715</v>
       </c>
       <c r="E554" t="n">
         <v>1</v>
@@ -17740,13 +17740,13 @@
         <v>561</v>
       </c>
       <c r="B556" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C556" t="n">
         <v>7966</v>
       </c>
       <c r="D556" t="n">
-        <v>6994.666666666667</v>
+        <v>7237.5</v>
       </c>
       <c r="E556" t="n">
         <v>1</v>
@@ -17763,13 +17763,13 @@
         <v>562</v>
       </c>
       <c r="B557" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C557" t="n">
         <v>7959</v>
       </c>
       <c r="D557" t="n">
-        <v>6992</v>
+        <v>7233.75</v>
       </c>
       <c r="E557" t="n">
         <v>3</v>
@@ -17786,7 +17786,7 @@
         <v>563</v>
       </c>
       <c r="B558" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C558" t="n">
         <v>7942</v>
@@ -17809,13 +17809,13 @@
         <v>564</v>
       </c>
       <c r="B559" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C559" t="n">
         <v>7922</v>
       </c>
       <c r="D559" t="n">
-        <v>6967.333333333333</v>
+        <v>7206</v>
       </c>
       <c r="E559" t="n">
         <v>1</v>
@@ -17832,13 +17832,13 @@
         <v>565</v>
       </c>
       <c r="B560" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C560" t="n">
         <v>7947</v>
       </c>
       <c r="D560" t="n">
-        <v>6984.333333333333</v>
+        <v>7225</v>
       </c>
       <c r="E560" t="n">
         <v>1</v>
@@ -17855,7 +17855,7 @@
         <v>566</v>
       </c>
       <c r="B561" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C561" t="n">
         <v>7958</v>
@@ -17878,13 +17878,13 @@
         <v>567</v>
       </c>
       <c r="B562" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C562" t="n">
         <v>31104</v>
       </c>
       <c r="D562" t="n">
-        <v>13739.83333333333</v>
+        <v>16220.42857142857</v>
       </c>
       <c r="E562" t="n">
         <v>1</v>
@@ -17907,7 +17907,7 @@
         <v>5059</v>
       </c>
       <c r="D563" t="n">
-        <v>3665</v>
+        <v>5056.666666666667</v>
       </c>
       <c r="E563" t="n">
         <v>1</v>
@@ -17924,7 +17924,7 @@
         <v>569</v>
       </c>
       <c r="B564" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C564" t="n">
         <v>7956</v>
@@ -17947,13 +17947,13 @@
         <v>570</v>
       </c>
       <c r="B565" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C565" t="n">
         <v>7931</v>
       </c>
       <c r="D565" t="n">
-        <v>6973.333333333333</v>
+        <v>7212.75</v>
       </c>
       <c r="E565" t="n">
         <v>1</v>
@@ -17970,13 +17970,13 @@
         <v>571</v>
       </c>
       <c r="B566" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C566" t="n">
         <v>7941</v>
       </c>
       <c r="D566" t="n">
-        <v>6980</v>
+        <v>7220.25</v>
       </c>
       <c r="E566" t="n">
         <v>3</v>
@@ -17993,13 +17993,13 @@
         <v>572</v>
       </c>
       <c r="B567" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C567" t="n">
         <v>30944</v>
       </c>
       <c r="D567" t="n">
-        <v>20761.33333333333</v>
+        <v>24472.5</v>
       </c>
       <c r="E567" t="n">
         <v>2</v>
@@ -18016,13 +18016,13 @@
         <v>573</v>
       </c>
       <c r="B568" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C568" t="n">
         <v>7958</v>
       </c>
       <c r="D568" t="n">
-        <v>6484.166666666667</v>
+        <v>6684.714285714285</v>
       </c>
       <c r="E568" t="n">
         <v>3</v>
@@ -18039,7 +18039,7 @@
         <v>574</v>
       </c>
       <c r="B569" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C569" t="n">
         <v>7946</v>
@@ -18062,13 +18062,13 @@
         <v>575</v>
       </c>
       <c r="B570" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C570" t="n">
         <v>7959</v>
       </c>
       <c r="D570" t="n">
-        <v>7233.5</v>
+        <v>7378.4</v>
       </c>
       <c r="E570" t="n">
         <v>1</v>
@@ -18085,7 +18085,7 @@
         <v>576</v>
       </c>
       <c r="B571" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C571" t="n">
         <v>31062</v>
@@ -18154,13 +18154,13 @@
         <v>579</v>
       </c>
       <c r="B574" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C574" t="n">
         <v>7957</v>
       </c>
       <c r="D574" t="n">
-        <v>7189</v>
+        <v>7325.4</v>
       </c>
       <c r="E574" t="n">
         <v>1</v>
@@ -18246,7 +18246,7 @@
         <v>583</v>
       </c>
       <c r="B578" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C578" t="n">
         <v>7683</v>
@@ -18318,10 +18318,10 @@
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>5788</v>
+        <v>7520</v>
       </c>
       <c r="D581" t="n">
-        <v>5788</v>
+        <v>7520</v>
       </c>
       <c r="E581" t="n">
         <v>1</v>
@@ -18430,7 +18430,7 @@
         <v>591</v>
       </c>
       <c r="B586" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C586" t="n">
         <v>7958</v>
@@ -18499,13 +18499,13 @@
         <v>594</v>
       </c>
       <c r="B589" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C589" t="n">
         <v>7958</v>
       </c>
       <c r="D589" t="n">
-        <v>6707.142857142857</v>
+        <v>6982.555555555556</v>
       </c>
       <c r="E589" t="n">
         <v>2</v>
@@ -18522,13 +18522,13 @@
         <v>595</v>
       </c>
       <c r="B590" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C590" t="n">
         <v>7948</v>
       </c>
       <c r="D590" t="n">
-        <v>6985</v>
+        <v>7225.75</v>
       </c>
       <c r="E590" t="n">
         <v>1</v>
@@ -18545,7 +18545,7 @@
         <v>596</v>
       </c>
       <c r="B591" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C591" t="n">
         <v>7961</v>
@@ -18568,7 +18568,7 @@
         <v>597</v>
       </c>
       <c r="B592" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C592" t="n">
         <v>7956</v>
@@ -18614,7 +18614,7 @@
         <v>599</v>
       </c>
       <c r="B594" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C594" t="n">
         <v>7936</v>
@@ -18706,7 +18706,7 @@
         <v>603</v>
       </c>
       <c r="B598" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C598" t="n">
         <v>7947</v>
@@ -18775,13 +18775,13 @@
         <v>606</v>
       </c>
       <c r="B601" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C601" t="n">
         <v>7959</v>
       </c>
       <c r="D601" t="n">
-        <v>6870.25</v>
+        <v>7087.8</v>
       </c>
       <c r="E601" t="n">
         <v>3</v>
@@ -18798,7 +18798,7 @@
         <v>607</v>
       </c>
       <c r="B602" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C602" t="n">
         <v>7957</v>
@@ -18867,13 +18867,13 @@
         <v>610</v>
       </c>
       <c r="B605" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C605" t="n">
         <v>7959</v>
       </c>
       <c r="D605" t="n">
-        <v>6132.5</v>
+        <v>7378.4</v>
       </c>
       <c r="E605" t="n">
         <v>1</v>
@@ -18890,13 +18890,13 @@
         <v>611</v>
       </c>
       <c r="B606" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C606" t="n">
         <v>7955</v>
       </c>
       <c r="D606" t="n">
-        <v>6506</v>
+        <v>6795.8</v>
       </c>
       <c r="E606" t="n">
         <v>1</v>
@@ -18913,7 +18913,7 @@
         <v>612</v>
       </c>
       <c r="B607" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C607" t="n">
         <v>7918</v>
@@ -18965,7 +18965,7 @@
         <v>5058</v>
       </c>
       <c r="D609" t="n">
-        <v>4496.75</v>
+        <v>5057.5</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -19005,13 +19005,13 @@
         <v>616</v>
       </c>
       <c r="B611" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C611" t="n">
         <v>7910</v>
       </c>
       <c r="D611" t="n">
-        <v>6959.666666666667</v>
+        <v>7197.25</v>
       </c>
       <c r="E611" t="n">
         <v>1</v>
@@ -19028,13 +19028,13 @@
         <v>617</v>
       </c>
       <c r="B612" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C612" t="n">
         <v>7843</v>
       </c>
       <c r="D612" t="n">
-        <v>6915</v>
+        <v>7147</v>
       </c>
       <c r="E612" t="n">
         <v>1</v>
@@ -19051,13 +19051,13 @@
         <v>618</v>
       </c>
       <c r="B613" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C613" t="n">
         <v>7954</v>
       </c>
       <c r="D613" t="n">
-        <v>6988</v>
+        <v>7229.5</v>
       </c>
       <c r="E613" t="n">
         <v>1</v>
@@ -19074,13 +19074,13 @@
         <v>619</v>
       </c>
       <c r="B614" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C614" t="n">
         <v>7958</v>
       </c>
       <c r="D614" t="n">
-        <v>7233</v>
+        <v>7378</v>
       </c>
       <c r="E614" t="n">
         <v>1</v>
@@ -19120,13 +19120,13 @@
         <v>621</v>
       </c>
       <c r="B616" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C616" t="n">
         <v>7958</v>
       </c>
       <c r="D616" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E616" t="n">
         <v>1</v>
@@ -19143,13 +19143,13 @@
         <v>622</v>
       </c>
       <c r="B617" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C617" t="n">
         <v>7946</v>
       </c>
       <c r="D617" t="n">
-        <v>6983.333333333333</v>
+        <v>7224</v>
       </c>
       <c r="E617" t="n">
         <v>1</v>
@@ -19166,7 +19166,7 @@
         <v>623</v>
       </c>
       <c r="B618" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C618" t="n">
         <v>7959</v>
@@ -19235,13 +19235,13 @@
         <v>626</v>
       </c>
       <c r="B621" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C621" t="n">
         <v>7958</v>
       </c>
       <c r="D621" t="n">
-        <v>6508.5</v>
+        <v>6798.4</v>
       </c>
       <c r="E621" t="n">
         <v>1</v>
@@ -19258,7 +19258,7 @@
         <v>627</v>
       </c>
       <c r="B622" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C622" t="n">
         <v>7886</v>
@@ -19373,13 +19373,13 @@
         <v>632</v>
       </c>
       <c r="B627" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C627" t="n">
         <v>7958</v>
       </c>
       <c r="D627" t="n">
-        <v>7230.5</v>
+        <v>7375</v>
       </c>
       <c r="E627" t="n">
         <v>1</v>
@@ -19396,13 +19396,13 @@
         <v>633</v>
       </c>
       <c r="B628" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C628" t="n">
         <v>7941</v>
       </c>
       <c r="D628" t="n">
-        <v>6287.5</v>
+        <v>6700.125</v>
       </c>
       <c r="E628" t="n">
         <v>1</v>
@@ -19419,13 +19419,13 @@
         <v>634</v>
       </c>
       <c r="B629" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C629" t="n">
         <v>7959</v>
       </c>
       <c r="D629" t="n">
-        <v>7232</v>
+        <v>7376.6</v>
       </c>
       <c r="E629" t="n">
         <v>1</v>
@@ -19442,13 +19442,13 @@
         <v>635</v>
       </c>
       <c r="B630" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C630" t="n">
         <v>7959</v>
       </c>
       <c r="D630" t="n">
-        <v>7227</v>
+        <v>7370.6</v>
       </c>
       <c r="E630" t="n">
         <v>1</v>
@@ -19465,13 +19465,13 @@
         <v>636</v>
       </c>
       <c r="B631" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C631" t="n">
         <v>7948</v>
       </c>
       <c r="D631" t="n">
-        <v>6984.666666666667</v>
+        <v>7225.5</v>
       </c>
       <c r="E631" t="n">
         <v>0</v>
@@ -19488,13 +19488,13 @@
         <v>637</v>
       </c>
       <c r="B632" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C632" t="n">
         <v>7947</v>
       </c>
       <c r="D632" t="n">
-        <v>6984.333333333333</v>
+        <v>7225</v>
       </c>
       <c r="E632" t="n">
         <v>1</v>
@@ -19534,13 +19534,13 @@
         <v>639</v>
       </c>
       <c r="B634" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C634" t="n">
         <v>7959</v>
       </c>
       <c r="D634" t="n">
-        <v>7215.5</v>
+        <v>7356.8</v>
       </c>
       <c r="E634" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         <v>640</v>
       </c>
       <c r="B635" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C635" t="n">
         <v>7900</v>
@@ -19580,7 +19580,7 @@
         <v>641</v>
       </c>
       <c r="B636" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C636" t="n">
         <v>7877</v>
@@ -19603,13 +19603,13 @@
         <v>642</v>
       </c>
       <c r="B637" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C637" t="n">
         <v>7958</v>
       </c>
       <c r="D637" t="n">
-        <v>7309.555555555556</v>
+        <v>7425.818181818182</v>
       </c>
       <c r="E637" t="n">
         <v>2</v>
@@ -19649,13 +19649,13 @@
         <v>644</v>
       </c>
       <c r="B639" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C639" t="n">
         <v>31101</v>
       </c>
       <c r="D639" t="n">
-        <v>15474.2</v>
+        <v>18078.66666666667</v>
       </c>
       <c r="E639" t="n">
         <v>6</v>
@@ -19741,7 +19741,7 @@
         <v>648</v>
       </c>
       <c r="B643" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C643" t="n">
         <v>7958</v>
@@ -19764,13 +19764,13 @@
         <v>649</v>
       </c>
       <c r="B644" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C644" t="n">
         <v>7959</v>
       </c>
       <c r="D644" t="n">
-        <v>6674.2</v>
+        <v>6836.333333333333</v>
       </c>
       <c r="E644" t="n">
         <v>1</v>
@@ -19787,7 +19787,7 @@
         <v>650</v>
       </c>
       <c r="B645" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C645" t="n">
         <v>7932</v>
@@ -19810,13 +19810,13 @@
         <v>651</v>
       </c>
       <c r="B646" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C646" t="n">
         <v>7959</v>
       </c>
       <c r="D646" t="n">
-        <v>7224.5</v>
+        <v>7367.6</v>
       </c>
       <c r="E646" t="n">
         <v>1</v>
@@ -19856,7 +19856,7 @@
         <v>653</v>
       </c>
       <c r="B648" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C648" t="n">
         <v>7955</v>
@@ -19925,13 +19925,13 @@
         <v>656</v>
       </c>
       <c r="B651" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C651" t="n">
         <v>7959</v>
       </c>
       <c r="D651" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E651" t="n">
         <v>1</v>
@@ -20017,13 +20017,13 @@
         <v>660</v>
       </c>
       <c r="B655" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C655" t="n">
         <v>7956</v>
       </c>
       <c r="D655" t="n">
-        <v>6989.666666666667</v>
+        <v>5979.75</v>
       </c>
       <c r="E655" t="n">
         <v>1</v>
@@ -20069,7 +20069,7 @@
         <v>5996</v>
       </c>
       <c r="D657" t="n">
-        <v>3997.333333333333</v>
+        <v>4460.666666666667</v>
       </c>
       <c r="E657" t="n">
         <v>1</v>
@@ -20086,7 +20086,7 @@
         <v>663</v>
       </c>
       <c r="B658" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C658" t="n">
         <v>7955</v>
@@ -20109,7 +20109,7 @@
         <v>664</v>
       </c>
       <c r="B659" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C659" t="n">
         <v>7954</v>
@@ -20132,7 +20132,7 @@
         <v>665</v>
       </c>
       <c r="B660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C660" t="n">
         <v>7926</v>
@@ -20155,13 +20155,13 @@
         <v>666</v>
       </c>
       <c r="B661" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C661" t="n">
         <v>7957</v>
       </c>
       <c r="D661" t="n">
-        <v>6991</v>
+        <v>7232.5</v>
       </c>
       <c r="E661" t="n">
         <v>1</v>
@@ -20178,7 +20178,7 @@
         <v>667</v>
       </c>
       <c r="B662" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C662" t="n">
         <v>7954</v>
@@ -20201,13 +20201,13 @@
         <v>668</v>
       </c>
       <c r="B663" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C663" t="n">
         <v>7957</v>
       </c>
       <c r="D663" t="n">
-        <v>6991</v>
+        <v>7232.5</v>
       </c>
       <c r="E663" t="n">
         <v>0</v>
@@ -20293,13 +20293,13 @@
         <v>672</v>
       </c>
       <c r="B667" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C667" t="n">
         <v>31103</v>
       </c>
       <c r="D667" t="n">
-        <v>31098.33333333333</v>
+        <v>31097.75</v>
       </c>
       <c r="E667" t="n">
         <v>1</v>
@@ -20431,7 +20431,7 @@
         <v>678</v>
       </c>
       <c r="B673" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C673" t="n">
         <v>7950</v>
@@ -20454,13 +20454,13 @@
         <v>679</v>
       </c>
       <c r="B674" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C674" t="n">
         <v>7935</v>
       </c>
       <c r="D674" t="n">
-        <v>6976</v>
+        <v>7215.75</v>
       </c>
       <c r="E674" t="n">
         <v>1</v>
@@ -20569,13 +20569,13 @@
         <v>684</v>
       </c>
       <c r="B679" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C679" t="n">
         <v>7928</v>
       </c>
       <c r="D679" t="n">
-        <v>6970</v>
+        <v>7209.5</v>
       </c>
       <c r="E679" t="n">
         <v>1</v>
@@ -20615,13 +20615,13 @@
         <v>686</v>
       </c>
       <c r="B681" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C681" t="n">
         <v>7959</v>
       </c>
       <c r="D681" t="n">
-        <v>7475.333333333333</v>
+        <v>7596.125</v>
       </c>
       <c r="E681" t="n">
         <v>1</v>
@@ -20684,13 +20684,13 @@
         <v>689</v>
       </c>
       <c r="B684" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C684" t="n">
         <v>7958</v>
       </c>
       <c r="D684" t="n">
-        <v>7206</v>
+        <v>7345.6</v>
       </c>
       <c r="E684" t="n">
         <v>1</v>
@@ -20707,7 +20707,7 @@
         <v>690</v>
       </c>
       <c r="B685" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C685" t="n">
         <v>7954</v>
@@ -20776,13 +20776,13 @@
         <v>693</v>
       </c>
       <c r="B688" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C688" t="n">
         <v>7958</v>
       </c>
       <c r="D688" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E688" t="n">
         <v>1</v>
@@ -20822,13 +20822,13 @@
         <v>695</v>
       </c>
       <c r="B690" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C690" t="n">
         <v>7877</v>
       </c>
       <c r="D690" t="n">
-        <v>6937.333333333333</v>
+        <v>7172.25</v>
       </c>
       <c r="E690" t="n">
         <v>1</v>
@@ -20845,13 +20845,13 @@
         <v>696</v>
       </c>
       <c r="B691" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C691" t="n">
         <v>7917</v>
       </c>
       <c r="D691" t="n">
-        <v>6964.333333333333</v>
+        <v>7202.5</v>
       </c>
       <c r="E691" t="n">
         <v>1</v>
@@ -20868,13 +20868,13 @@
         <v>697</v>
       </c>
       <c r="B692" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C692" t="n">
         <v>7958</v>
       </c>
       <c r="D692" t="n">
-        <v>7233</v>
+        <v>7378</v>
       </c>
       <c r="E692" t="n">
         <v>1</v>
@@ -20891,7 +20891,7 @@
         <v>698</v>
       </c>
       <c r="B693" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C693" t="n">
         <v>7957</v>
@@ -20914,7 +20914,7 @@
         <v>699</v>
       </c>
       <c r="B694" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C694" t="n">
         <v>7938</v>
@@ -20940,10 +20940,10 @@
         <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>3057</v>
+        <v>5058</v>
       </c>
       <c r="D695" t="n">
-        <v>3057</v>
+        <v>5058</v>
       </c>
       <c r="E695" t="n">
         <v>1</v>
@@ -20960,13 +20960,13 @@
         <v>701</v>
       </c>
       <c r="B696" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C696" t="n">
         <v>17192</v>
       </c>
       <c r="D696" t="n">
-        <v>10998</v>
+        <v>10223.75</v>
       </c>
       <c r="E696" t="n">
         <v>1</v>
@@ -20983,13 +20983,13 @@
         <v>702</v>
       </c>
       <c r="B697" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C697" t="n">
         <v>7937</v>
       </c>
       <c r="D697" t="n">
-        <v>6977.333333333333</v>
+        <v>7217.25</v>
       </c>
       <c r="E697" t="n">
         <v>1</v>
@@ -21029,13 +21029,13 @@
         <v>704</v>
       </c>
       <c r="B699" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C699" t="n">
         <v>7958</v>
       </c>
       <c r="D699" t="n">
-        <v>7220</v>
+        <v>7362.4</v>
       </c>
       <c r="E699" t="n">
         <v>1</v>
@@ -21052,13 +21052,13 @@
         <v>705</v>
       </c>
       <c r="B700" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C700" t="n">
         <v>7959</v>
       </c>
       <c r="D700" t="n">
-        <v>6509</v>
+        <v>6799</v>
       </c>
       <c r="E700" t="n">
         <v>1</v>
@@ -21075,13 +21075,13 @@
         <v>706</v>
       </c>
       <c r="B701" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C701" t="n">
         <v>7575</v>
       </c>
       <c r="D701" t="n">
-        <v>6736.333333333333</v>
+        <v>6946</v>
       </c>
       <c r="E701" t="n">
         <v>1</v>
@@ -21098,13 +21098,13 @@
         <v>707</v>
       </c>
       <c r="B702" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C702" t="n">
         <v>7958</v>
       </c>
       <c r="D702" t="n">
-        <v>7219</v>
+        <v>7361.2</v>
       </c>
       <c r="E702" t="n">
         <v>1</v>
@@ -21121,7 +21121,7 @@
         <v>708</v>
       </c>
       <c r="B703" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C703" t="n">
         <v>7870</v>
@@ -21144,7 +21144,7 @@
         <v>709</v>
       </c>
       <c r="B704" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C704" t="n">
         <v>7955</v>
@@ -21236,13 +21236,13 @@
         <v>713</v>
       </c>
       <c r="B708" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C708" t="n">
         <v>7939</v>
       </c>
       <c r="D708" t="n">
-        <v>6978</v>
+        <v>7218.25</v>
       </c>
       <c r="E708" t="n">
         <v>1</v>
@@ -21305,13 +21305,13 @@
         <v>716</v>
       </c>
       <c r="B711" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C711" t="n">
         <v>35608</v>
       </c>
       <c r="D711" t="n">
-        <v>21454</v>
+        <v>24284.8</v>
       </c>
       <c r="E711" t="n">
         <v>2</v>
@@ -21351,7 +21351,7 @@
         <v>718</v>
       </c>
       <c r="B713" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C713" t="n">
         <v>7904</v>
@@ -21489,13 +21489,13 @@
         <v>724</v>
       </c>
       <c r="B719" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C719" t="n">
         <v>7915</v>
       </c>
       <c r="D719" t="n">
-        <v>6962.666666666667</v>
+        <v>7200.75</v>
       </c>
       <c r="E719" t="n">
         <v>1</v>
@@ -21512,7 +21512,7 @@
         <v>725</v>
       </c>
       <c r="B720" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C720" t="n">
         <v>7957</v>
@@ -21581,13 +21581,13 @@
         <v>728</v>
       </c>
       <c r="B723" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C723" t="n">
         <v>7956</v>
       </c>
       <c r="D723" t="n">
-        <v>6989.666666666667</v>
+        <v>7231.25</v>
       </c>
       <c r="E723" t="n">
         <v>1</v>
@@ -21604,13 +21604,13 @@
         <v>729</v>
       </c>
       <c r="B724" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C724" t="n">
         <v>7957</v>
       </c>
       <c r="D724" t="n">
-        <v>6989.166666666667</v>
+        <v>7126.857142857143</v>
       </c>
       <c r="E724" t="n">
         <v>1</v>
@@ -21627,7 +21627,7 @@
         <v>730</v>
       </c>
       <c r="B725" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C725" t="n">
         <v>7953</v>
@@ -21650,13 +21650,13 @@
         <v>731</v>
       </c>
       <c r="B726" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C726" t="n">
         <v>7886</v>
       </c>
       <c r="D726" t="n">
-        <v>6943.333333333333</v>
+        <v>7179</v>
       </c>
       <c r="E726" t="n">
         <v>1</v>
@@ -21673,7 +21673,7 @@
         <v>732</v>
       </c>
       <c r="B727" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C727" t="n">
         <v>7957</v>
@@ -21696,13 +21696,13 @@
         <v>733</v>
       </c>
       <c r="B728" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C728" t="n">
         <v>7878</v>
       </c>
       <c r="D728" t="n">
-        <v>6938</v>
+        <v>7173</v>
       </c>
       <c r="E728" t="n">
         <v>0</v>
@@ -21765,13 +21765,13 @@
         <v>736</v>
       </c>
       <c r="B731" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C731" t="n">
         <v>7935</v>
       </c>
       <c r="D731" t="n">
-        <v>6974</v>
+        <v>7214.25</v>
       </c>
       <c r="E731" t="n">
         <v>1</v>
@@ -21788,7 +21788,7 @@
         <v>737</v>
       </c>
       <c r="B732" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C732" t="n">
         <v>7923</v>
@@ -21834,13 +21834,13 @@
         <v>739</v>
       </c>
       <c r="B734" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C734" t="n">
         <v>7959</v>
       </c>
       <c r="D734" t="n">
-        <v>6765.4</v>
+        <v>6950.333333333333</v>
       </c>
       <c r="E734" t="n">
         <v>2</v>
@@ -21949,7 +21949,7 @@
         <v>744</v>
       </c>
       <c r="B739" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C739" t="n">
         <v>7904</v>
@@ -21995,7 +21995,7 @@
         <v>746</v>
       </c>
       <c r="B741" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C741" t="n">
         <v>7958</v>
@@ -22067,10 +22067,10 @@
         <v>2</v>
       </c>
       <c r="C744" t="n">
-        <v>7956</v>
+        <v>30532</v>
       </c>
       <c r="D744" t="n">
-        <v>7956</v>
+        <v>30532</v>
       </c>
       <c r="E744" t="n">
         <v>0</v>
@@ -22110,7 +22110,7 @@
         <v>751</v>
       </c>
       <c r="B746" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C746" t="n">
         <v>7946</v>
@@ -22156,7 +22156,7 @@
         <v>753</v>
       </c>
       <c r="B748" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C748" t="n">
         <v>7956</v>
@@ -22294,7 +22294,7 @@
         <v>759</v>
       </c>
       <c r="B754" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C754" t="n">
         <v>7957</v>
@@ -22317,7 +22317,7 @@
         <v>760</v>
       </c>
       <c r="B755" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C755" t="n">
         <v>7954</v>
@@ -22340,7 +22340,7 @@
         <v>761</v>
       </c>
       <c r="B756" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C756" t="n">
         <v>7955</v>
@@ -22409,13 +22409,13 @@
         <v>764</v>
       </c>
       <c r="B759" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C759" t="n">
         <v>7956</v>
       </c>
       <c r="D759" t="n">
-        <v>6504.5</v>
+        <v>6794.8</v>
       </c>
       <c r="E759" t="n">
         <v>1</v>
@@ -22432,13 +22432,13 @@
         <v>765</v>
       </c>
       <c r="B760" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C760" t="n">
         <v>7818</v>
       </c>
       <c r="D760" t="n">
-        <v>6898.333333333333</v>
+        <v>7128.25</v>
       </c>
       <c r="E760" t="n">
         <v>1</v>
@@ -22455,13 +22455,13 @@
         <v>766</v>
       </c>
       <c r="B761" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C761" t="n">
         <v>7835</v>
       </c>
       <c r="D761" t="n">
-        <v>6909.666666666667</v>
+        <v>7141</v>
       </c>
       <c r="E761" t="n">
         <v>1</v>
@@ -22501,13 +22501,13 @@
         <v>768</v>
       </c>
       <c r="B763" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C763" t="n">
         <v>7959</v>
       </c>
       <c r="D763" t="n">
-        <v>7378.6</v>
+        <v>7544.285714285715</v>
       </c>
       <c r="E763" t="n">
         <v>3</v>
@@ -22524,7 +22524,7 @@
         <v>769</v>
       </c>
       <c r="B764" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C764" t="n">
         <v>29777</v>
@@ -22570,7 +22570,7 @@
         <v>771</v>
       </c>
       <c r="B766" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C766" t="n">
         <v>7899</v>
@@ -22708,13 +22708,13 @@
         <v>777</v>
       </c>
       <c r="B772" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C772" t="n">
         <v>30992</v>
       </c>
       <c r="D772" t="n">
-        <v>11088.90909090909</v>
+        <v>10606</v>
       </c>
       <c r="E772" t="n">
         <v>4</v>
@@ -22846,13 +22846,13 @@
         <v>783</v>
       </c>
       <c r="B778" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C778" t="n">
         <v>7902</v>
       </c>
       <c r="D778" t="n">
-        <v>6954.333333333333</v>
+        <v>7191.25</v>
       </c>
       <c r="E778" t="n">
         <v>1</v>
@@ -22892,13 +22892,13 @@
         <v>785</v>
       </c>
       <c r="B780" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C780" t="n">
         <v>30206</v>
       </c>
       <c r="D780" t="n">
-        <v>22154</v>
+        <v>23764.4</v>
       </c>
       <c r="E780" t="n">
         <v>1</v>
@@ -22915,13 +22915,13 @@
         <v>786</v>
       </c>
       <c r="B781" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C781" t="n">
         <v>7959</v>
       </c>
       <c r="D781" t="n">
-        <v>7200</v>
+        <v>7338.2</v>
       </c>
       <c r="E781" t="n">
         <v>1</v>
@@ -22961,13 +22961,13 @@
         <v>788</v>
       </c>
       <c r="B783" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C783" t="n">
         <v>7957</v>
       </c>
       <c r="D783" t="n">
-        <v>7229.5</v>
+        <v>7374</v>
       </c>
       <c r="E783" t="n">
         <v>1</v>
@@ -23076,13 +23076,13 @@
         <v>793</v>
       </c>
       <c r="B788" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C788" t="n">
         <v>7926</v>
       </c>
       <c r="D788" t="n">
-        <v>6970</v>
+        <v>7209</v>
       </c>
       <c r="E788" t="n">
         <v>1</v>
@@ -23099,13 +23099,13 @@
         <v>794</v>
       </c>
       <c r="B789" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C789" t="n">
         <v>7959</v>
       </c>
       <c r="D789" t="n">
-        <v>7233.5</v>
+        <v>7378.4</v>
       </c>
       <c r="E789" t="n">
         <v>1</v>
@@ -23145,13 +23145,13 @@
         <v>796</v>
       </c>
       <c r="B791" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C791" t="n">
         <v>9315</v>
       </c>
       <c r="D791" t="n">
-        <v>8258.5</v>
+        <v>8182.8</v>
       </c>
       <c r="E791" t="n">
         <v>1</v>
@@ -23237,13 +23237,13 @@
         <v>800</v>
       </c>
       <c r="B795" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C795" t="n">
         <v>7950</v>
       </c>
       <c r="D795" t="n">
-        <v>6986</v>
+        <v>7227</v>
       </c>
       <c r="E795" t="n">
         <v>1</v>
@@ -23260,13 +23260,13 @@
         <v>801</v>
       </c>
       <c r="B796" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C796" t="n">
         <v>7959</v>
       </c>
       <c r="D796" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E796" t="n">
         <v>1</v>
@@ -23283,13 +23283,13 @@
         <v>802</v>
       </c>
       <c r="B797" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C797" t="n">
         <v>7957</v>
       </c>
       <c r="D797" t="n">
-        <v>7058.6</v>
+        <v>7471.666666666667</v>
       </c>
       <c r="E797" t="n">
         <v>1</v>
@@ -23329,13 +23329,13 @@
         <v>804</v>
       </c>
       <c r="B799" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C799" t="n">
         <v>7936</v>
       </c>
       <c r="D799" t="n">
-        <v>6976.666666666667</v>
+        <v>7216.5</v>
       </c>
       <c r="E799" t="n">
         <v>1</v>
@@ -23375,13 +23375,13 @@
         <v>806</v>
       </c>
       <c r="B801" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C801" t="n">
         <v>7959</v>
       </c>
       <c r="D801" t="n">
-        <v>7216.5</v>
+        <v>7358</v>
       </c>
       <c r="E801" t="n">
         <v>1</v>
@@ -23398,13 +23398,13 @@
         <v>807</v>
       </c>
       <c r="B802" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C802" t="n">
         <v>7957</v>
       </c>
       <c r="D802" t="n">
-        <v>7231.5</v>
+        <v>7376.4</v>
       </c>
       <c r="E802" t="n">
         <v>1</v>
@@ -23467,7 +23467,7 @@
         <v>810</v>
       </c>
       <c r="B805" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C805" t="n">
         <v>7929</v>
@@ -23513,7 +23513,7 @@
         <v>812</v>
       </c>
       <c r="B807" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C807" t="n">
         <v>7918</v>
@@ -23559,7 +23559,7 @@
         <v>814</v>
       </c>
       <c r="B809" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C809" t="n">
         <v>7939</v>
@@ -23582,13 +23582,13 @@
         <v>815</v>
       </c>
       <c r="B810" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C810" t="n">
         <v>7957</v>
       </c>
       <c r="D810" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E810" t="n">
         <v>1</v>
@@ -23628,7 +23628,7 @@
         <v>817</v>
       </c>
       <c r="B812" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C812" t="n">
         <v>7952</v>
@@ -23651,13 +23651,13 @@
         <v>818</v>
       </c>
       <c r="B813" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C813" t="n">
         <v>7945</v>
       </c>
       <c r="D813" t="n">
-        <v>6982.666666666667</v>
+        <v>7223.25</v>
       </c>
       <c r="E813" t="n">
         <v>1</v>
@@ -23674,13 +23674,13 @@
         <v>819</v>
       </c>
       <c r="B814" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C814" t="n">
         <v>7956</v>
       </c>
       <c r="D814" t="n">
-        <v>6989.333333333333</v>
+        <v>7231</v>
       </c>
       <c r="E814" t="n">
         <v>1</v>
@@ -23697,7 +23697,7 @@
         <v>820</v>
       </c>
       <c r="B815" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C815" t="n">
         <v>7942</v>
@@ -23720,13 +23720,13 @@
         <v>821</v>
       </c>
       <c r="B816" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C816" t="n">
         <v>7958</v>
       </c>
       <c r="D816" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E816" t="n">
         <v>1</v>
@@ -23743,7 +23743,7 @@
         <v>822</v>
       </c>
       <c r="B817" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C817" t="n">
         <v>7884</v>
@@ -23789,13 +23789,13 @@
         <v>824</v>
       </c>
       <c r="B819" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C819" t="n">
         <v>7959</v>
       </c>
       <c r="D819" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E819" t="n">
         <v>1</v>
@@ -23812,13 +23812,13 @@
         <v>825</v>
       </c>
       <c r="B820" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C820" t="n">
         <v>7959</v>
       </c>
       <c r="D820" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E820" t="n">
         <v>0</v>
@@ -23838,10 +23838,10 @@
         <v>1</v>
       </c>
       <c r="C821" t="n">
-        <v>5059</v>
+        <v>3317</v>
       </c>
       <c r="D821" t="n">
-        <v>5059</v>
+        <v>3317</v>
       </c>
       <c r="E821" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>827</v>
       </c>
       <c r="B822" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C822" t="n">
         <v>7955</v>
@@ -23881,13 +23881,13 @@
         <v>828</v>
       </c>
       <c r="B823" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C823" t="n">
         <v>7959</v>
       </c>
       <c r="D823" t="n">
-        <v>7213.75</v>
+        <v>7354.8</v>
       </c>
       <c r="E823" t="n">
         <v>1</v>
@@ -23927,13 +23927,13 @@
         <v>830</v>
       </c>
       <c r="B825" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C825" t="n">
         <v>7920</v>
       </c>
       <c r="D825" t="n">
-        <v>6851</v>
+        <v>7118.25</v>
       </c>
       <c r="E825" t="n">
         <v>1</v>
@@ -24134,7 +24134,7 @@
         <v>839</v>
       </c>
       <c r="B834" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C834" t="n">
         <v>7952</v>
@@ -24157,7 +24157,7 @@
         <v>840</v>
       </c>
       <c r="B835" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C835" t="n">
         <v>7945</v>
@@ -24180,13 +24180,13 @@
         <v>841</v>
       </c>
       <c r="B836" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C836" t="n">
         <v>7954</v>
       </c>
       <c r="D836" t="n">
-        <v>6988.666666666667</v>
+        <v>7230</v>
       </c>
       <c r="E836" t="n">
         <v>1</v>
@@ -24203,7 +24203,7 @@
         <v>842</v>
       </c>
       <c r="B837" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C837" t="n">
         <v>7958</v>
@@ -24226,13 +24226,13 @@
         <v>843</v>
       </c>
       <c r="B838" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C838" t="n">
         <v>7956</v>
       </c>
       <c r="D838" t="n">
-        <v>6507</v>
+        <v>6796.8</v>
       </c>
       <c r="E838" t="n">
         <v>1</v>
@@ -24249,13 +24249,13 @@
         <v>844</v>
       </c>
       <c r="B839" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C839" t="n">
         <v>7512</v>
       </c>
       <c r="D839" t="n">
-        <v>6694</v>
+        <v>6898.5</v>
       </c>
       <c r="E839" t="n">
         <v>1</v>
@@ -24272,13 +24272,13 @@
         <v>845</v>
       </c>
       <c r="B840" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C840" t="n">
         <v>7953</v>
       </c>
       <c r="D840" t="n">
-        <v>6988</v>
+        <v>7229.25</v>
       </c>
       <c r="E840" t="n">
         <v>1</v>
@@ -24295,13 +24295,13 @@
         <v>846</v>
       </c>
       <c r="B841" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C841" t="n">
         <v>7958</v>
       </c>
       <c r="D841" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E841" t="n">
         <v>1</v>
@@ -24482,10 +24482,10 @@
         <v>2</v>
       </c>
       <c r="C849" t="n">
-        <v>7958</v>
+        <v>31091</v>
       </c>
       <c r="D849" t="n">
-        <v>7958</v>
+        <v>31091</v>
       </c>
       <c r="E849" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>863</v>
       </c>
       <c r="B858" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C858" t="n">
         <v>7958</v>
@@ -24709,13 +24709,13 @@
         <v>864</v>
       </c>
       <c r="B859" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C859" t="n">
         <v>7956</v>
       </c>
       <c r="D859" t="n">
-        <v>6990</v>
+        <v>7231.5</v>
       </c>
       <c r="E859" t="n">
         <v>0</v>
@@ -24755,7 +24755,7 @@
         <v>866</v>
       </c>
       <c r="B861" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C861" t="n">
         <v>7904</v>
@@ -24801,13 +24801,13 @@
         <v>868</v>
       </c>
       <c r="B863" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C863" t="n">
         <v>7904</v>
       </c>
       <c r="D863" t="n">
-        <v>6955.666666666667</v>
+        <v>7192.75</v>
       </c>
       <c r="E863" t="n">
         <v>1</v>
@@ -24824,7 +24824,7 @@
         <v>869</v>
       </c>
       <c r="B864" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C864" t="n">
         <v>7957</v>
@@ -24847,13 +24847,13 @@
         <v>870</v>
       </c>
       <c r="B865" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C865" t="n">
         <v>7958</v>
       </c>
       <c r="D865" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E865" t="n">
         <v>2</v>
@@ -24870,13 +24870,13 @@
         <v>871</v>
       </c>
       <c r="B866" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C866" t="n">
         <v>7958</v>
       </c>
       <c r="D866" t="n">
-        <v>7371.6</v>
+        <v>7466.666666666667</v>
       </c>
       <c r="E866" t="n">
         <v>1</v>
@@ -24893,13 +24893,13 @@
         <v>872</v>
       </c>
       <c r="B867" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C867" t="n">
         <v>7958</v>
       </c>
       <c r="D867" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E867" t="n">
         <v>1</v>
@@ -24939,13 +24939,13 @@
         <v>874</v>
       </c>
       <c r="B869" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C869" t="n">
         <v>7951</v>
       </c>
       <c r="D869" t="n">
-        <v>6986.666666666667</v>
+        <v>7227.75</v>
       </c>
       <c r="E869" t="n">
         <v>1</v>
@@ -25008,13 +25008,13 @@
         <v>877</v>
       </c>
       <c r="B872" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C872" t="n">
         <v>7959</v>
       </c>
       <c r="D872" t="n">
-        <v>7368.6</v>
+        <v>7462.666666666667</v>
       </c>
       <c r="E872" t="n">
         <v>1</v>
@@ -25054,13 +25054,13 @@
         <v>879</v>
       </c>
       <c r="B874" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C874" t="n">
         <v>7954</v>
       </c>
       <c r="D874" t="n">
-        <v>6988.666666666667</v>
+        <v>7230</v>
       </c>
       <c r="E874" t="n">
         <v>1</v>
@@ -25172,10 +25172,10 @@
         <v>2</v>
       </c>
       <c r="C879" t="n">
-        <v>7940</v>
+        <v>30720</v>
       </c>
       <c r="D879" t="n">
-        <v>7940</v>
+        <v>30720</v>
       </c>
       <c r="E879" t="n">
         <v>1</v>
@@ -25399,13 +25399,13 @@
         <v>894</v>
       </c>
       <c r="B889" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C889" t="n">
         <v>7957</v>
       </c>
       <c r="D889" t="n">
-        <v>7369</v>
+        <v>7464.166666666667</v>
       </c>
       <c r="E889" t="n">
         <v>1</v>
@@ -25445,13 +25445,13 @@
         <v>896</v>
       </c>
       <c r="B891" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C891" t="n">
         <v>7958</v>
       </c>
       <c r="D891" t="n">
-        <v>7233</v>
+        <v>7378</v>
       </c>
       <c r="E891" t="n">
         <v>1</v>
@@ -25537,13 +25537,13 @@
         <v>900</v>
       </c>
       <c r="B895" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C895" t="n">
         <v>7482</v>
       </c>
       <c r="D895" t="n">
-        <v>7185</v>
+        <v>7259.25</v>
       </c>
       <c r="E895" t="n">
         <v>1</v>
@@ -25560,7 +25560,7 @@
         <v>901</v>
       </c>
       <c r="B896" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C896" t="n">
         <v>7959</v>
@@ -25583,7 +25583,7 @@
         <v>902</v>
       </c>
       <c r="B897" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C897" t="n">
         <v>7828</v>
@@ -25629,13 +25629,13 @@
         <v>904</v>
       </c>
       <c r="B899" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C899" t="n">
         <v>7958</v>
       </c>
       <c r="D899" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E899" t="n">
         <v>1</v>
@@ -25652,13 +25652,13 @@
         <v>905</v>
       </c>
       <c r="B900" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C900" t="n">
         <v>7959</v>
       </c>
       <c r="D900" t="n">
-        <v>7378.2</v>
+        <v>7474.666666666667</v>
       </c>
       <c r="E900" t="n">
         <v>1</v>
@@ -25675,7 +25675,7 @@
         <v>906</v>
       </c>
       <c r="B901" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C901" t="n">
         <v>7882</v>
@@ -25721,7 +25721,7 @@
         <v>908</v>
       </c>
       <c r="B903" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C903" t="n">
         <v>7950</v>
@@ -25836,7 +25836,7 @@
         <v>913</v>
       </c>
       <c r="B908" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C908" t="n">
         <v>7930</v>
@@ -25859,7 +25859,7 @@
         <v>914</v>
       </c>
       <c r="B909" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C909" t="n">
         <v>7958</v>
@@ -25882,13 +25882,13 @@
         <v>915</v>
       </c>
       <c r="B910" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C910" t="n">
         <v>7950</v>
       </c>
       <c r="D910" t="n">
-        <v>6502.75</v>
+        <v>6792.2</v>
       </c>
       <c r="E910" t="n">
         <v>1</v>
@@ -26112,7 +26112,7 @@
         <v>925</v>
       </c>
       <c r="B920" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C920" t="n">
         <v>7955</v>
@@ -26135,13 +26135,13 @@
         <v>926</v>
       </c>
       <c r="B921" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C921" t="n">
         <v>7959</v>
       </c>
       <c r="D921" t="n">
-        <v>7133</v>
+        <v>7257.8</v>
       </c>
       <c r="E921" t="n">
         <v>1</v>
@@ -26158,13 +26158,13 @@
         <v>927</v>
       </c>
       <c r="B922" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C922" t="n">
         <v>7958</v>
       </c>
       <c r="D922" t="n">
-        <v>6508.5</v>
+        <v>6798.4</v>
       </c>
       <c r="E922" t="n">
         <v>1</v>
@@ -26181,13 +26181,13 @@
         <v>928</v>
       </c>
       <c r="B923" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C923" t="n">
         <v>7944</v>
       </c>
       <c r="D923" t="n">
-        <v>6982.333333333333</v>
+        <v>7222.75</v>
       </c>
       <c r="E923" t="n">
         <v>1</v>
@@ -26250,7 +26250,7 @@
         <v>931</v>
       </c>
       <c r="B926" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C926" t="n">
         <v>7952</v>
@@ -26296,13 +26296,13 @@
         <v>933</v>
       </c>
       <c r="B928" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C928" t="n">
         <v>7947</v>
       </c>
       <c r="D928" t="n">
-        <v>6984.333333333333</v>
+        <v>7225</v>
       </c>
       <c r="E928" t="n">
         <v>1</v>
@@ -26411,13 +26411,13 @@
         <v>938</v>
       </c>
       <c r="B933" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C933" t="n">
         <v>7958</v>
       </c>
       <c r="D933" t="n">
-        <v>7231</v>
+        <v>7375.6</v>
       </c>
       <c r="E933" t="n">
         <v>1</v>
@@ -26641,13 +26641,13 @@
         <v>948</v>
       </c>
       <c r="B943" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C943" t="n">
         <v>7952</v>
       </c>
       <c r="D943" t="n">
-        <v>6987.333333333333</v>
+        <v>7228.5</v>
       </c>
       <c r="E943" t="n">
         <v>1</v>
@@ -27055,13 +27055,13 @@
         <v>966</v>
       </c>
       <c r="B961" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C961" t="n">
         <v>7959</v>
       </c>
       <c r="D961" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E961" t="n">
         <v>1</v>
@@ -27078,13 +27078,13 @@
         <v>967</v>
       </c>
       <c r="B962" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C962" t="n">
         <v>7933</v>
       </c>
       <c r="D962" t="n">
-        <v>6495.75</v>
+        <v>6783.2</v>
       </c>
       <c r="E962" t="n">
         <v>1</v>
@@ -27262,13 +27262,13 @@
         <v>975</v>
       </c>
       <c r="B970" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C970" t="n">
         <v>7958</v>
       </c>
       <c r="D970" t="n">
-        <v>6792.5</v>
+        <v>7233.25</v>
       </c>
       <c r="E970" t="n">
         <v>2</v>
@@ -27676,13 +27676,13 @@
         <v>993</v>
       </c>
       <c r="B988" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C988" t="n">
-        <v>31103</v>
+        <v>7958</v>
       </c>
       <c r="D988" t="n">
-        <v>12499.42857142857</v>
+        <v>6145.5</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -27998,13 +27998,13 @@
         <v>1007</v>
       </c>
       <c r="B1002" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1002" t="n">
         <v>7959</v>
       </c>
       <c r="D1002" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E1002" t="n">
         <v>1</v>
@@ -28044,13 +28044,13 @@
         <v>1009</v>
       </c>
       <c r="B1004" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1004" t="n">
         <v>7959</v>
       </c>
       <c r="D1004" t="n">
-        <v>6798.2</v>
+        <v>6991.333333333333</v>
       </c>
       <c r="E1004" t="n">
         <v>2</v>
@@ -28182,13 +28182,13 @@
         <v>1015</v>
       </c>
       <c r="B1010" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1010" t="n">
         <v>7959</v>
       </c>
       <c r="D1010" t="n">
-        <v>7226.5</v>
+        <v>7370</v>
       </c>
       <c r="E1010" t="n">
         <v>1</v>
@@ -28711,7 +28711,7 @@
         <v>1038</v>
       </c>
       <c r="B1033" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1033" t="n">
         <v>1883</v>
@@ -28895,13 +28895,13 @@
         <v>1046</v>
       </c>
       <c r="B1041" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1041" t="n">
         <v>7956</v>
       </c>
       <c r="D1041" t="n">
-        <v>6990</v>
+        <v>7231.5</v>
       </c>
       <c r="E1041" t="n">
         <v>1</v>
@@ -28941,7 +28941,7 @@
         <v>1048</v>
       </c>
       <c r="B1043" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1043" t="n">
         <v>7957</v>
@@ -28987,7 +28987,7 @@
         <v>1050</v>
       </c>
       <c r="B1045" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1045" t="n">
         <v>7953</v>
@@ -29562,13 +29562,13 @@
         <v>1075</v>
       </c>
       <c r="B1070" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1070" t="n">
         <v>7955</v>
       </c>
       <c r="D1070" t="n">
-        <v>6989.666666666667</v>
+        <v>7231</v>
       </c>
       <c r="E1070" t="n">
         <v>1</v>
@@ -29861,7 +29861,7 @@
         <v>1088</v>
       </c>
       <c r="B1083" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1083" t="n">
         <v>7959</v>
@@ -29953,7 +29953,7 @@
         <v>1092</v>
       </c>
       <c r="B1087" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1087" t="n">
         <v>7954</v>
@@ -29999,13 +29999,13 @@
         <v>1094</v>
       </c>
       <c r="B1089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1089" t="n">
         <v>7958</v>
       </c>
       <c r="D1089" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E1089" t="n">
         <v>1</v>
@@ -30114,7 +30114,7 @@
         <v>1099</v>
       </c>
       <c r="B1094" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1094" t="n">
         <v>7899</v>
@@ -30439,10 +30439,10 @@
         <v>7</v>
       </c>
       <c r="C1108" t="n">
-        <v>7953</v>
+        <v>31073</v>
       </c>
       <c r="D1108" t="n">
-        <v>5883.571428571428</v>
+        <v>12489.28571428571</v>
       </c>
       <c r="E1108" t="n">
         <v>6</v>
@@ -30482,13 +30482,13 @@
         <v>1115</v>
       </c>
       <c r="B1110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1110" t="n">
         <v>31167</v>
       </c>
       <c r="D1110" t="n">
-        <v>12562.27272727273</v>
+        <v>10349.13043478261</v>
       </c>
       <c r="E1110" t="n">
         <v>9</v>
@@ -30689,13 +30689,13 @@
         <v>1124</v>
       </c>
       <c r="B1119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1119" t="n">
-        <v>31103</v>
+        <v>7958</v>
       </c>
       <c r="D1119" t="n">
-        <v>31103</v>
+        <v>7958</v>
       </c>
       <c r="E1119" t="n">
         <v>1</v>
@@ -30758,7 +30758,7 @@
         <v>1127</v>
       </c>
       <c r="B1122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1122" t="n">
         <v>7958</v>
@@ -30850,7 +30850,7 @@
         <v>1131</v>
       </c>
       <c r="B1126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1126" t="n">
         <v>7954</v>
@@ -30879,7 +30879,7 @@
         <v>7958</v>
       </c>
       <c r="D1127" t="n">
-        <v>6025</v>
+        <v>7218.5</v>
       </c>
       <c r="E1127" t="n">
         <v>1</v>
@@ -31103,7 +31103,7 @@
         <v>1142</v>
       </c>
       <c r="B1137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1137" t="n">
         <v>7958</v>
@@ -31126,13 +31126,13 @@
         <v>1143</v>
       </c>
       <c r="B1138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1138" t="n">
         <v>7937</v>
       </c>
       <c r="D1138" t="n">
-        <v>7361.2</v>
+        <v>7457.166666666667</v>
       </c>
       <c r="E1138" t="n">
         <v>1</v>
@@ -31195,13 +31195,13 @@
         <v>1146</v>
       </c>
       <c r="B1141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1141" t="n">
         <v>7810</v>
       </c>
       <c r="D1141" t="n">
-        <v>6893</v>
+        <v>7122.25</v>
       </c>
       <c r="E1141" t="n">
         <v>1</v>
@@ -31267,10 +31267,10 @@
         <v>1</v>
       </c>
       <c r="C1144" t="n">
-        <v>51</v>
+        <v>5058</v>
       </c>
       <c r="D1144" t="n">
-        <v>51</v>
+        <v>5058</v>
       </c>
       <c r="E1144" t="n">
         <v>1</v>
@@ -31356,13 +31356,13 @@
         <v>1153</v>
       </c>
       <c r="B1148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1148" t="n">
         <v>7883</v>
       </c>
       <c r="D1148" t="n">
-        <v>6941.666666666667</v>
+        <v>7177</v>
       </c>
       <c r="E1148" t="n">
         <v>1</v>
@@ -31543,10 +31543,10 @@
         <v>1</v>
       </c>
       <c r="C1156" t="n">
-        <v>112</v>
+        <v>5058</v>
       </c>
       <c r="D1156" t="n">
-        <v>112</v>
+        <v>5058</v>
       </c>
       <c r="E1156" t="n">
         <v>1</v>
@@ -32138,13 +32138,13 @@
         <v>1187</v>
       </c>
       <c r="B1182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1182" t="n">
         <v>7957</v>
       </c>
       <c r="D1182" t="n">
-        <v>7232</v>
+        <v>7377</v>
       </c>
       <c r="E1182" t="n">
         <v>1</v>
@@ -32164,10 +32164,10 @@
         <v>1</v>
       </c>
       <c r="C1183" t="n">
-        <v>741</v>
+        <v>5059</v>
       </c>
       <c r="D1183" t="n">
-        <v>741</v>
+        <v>5059</v>
       </c>
       <c r="E1183" t="n">
         <v>0</v>
@@ -32210,10 +32210,10 @@
         <v>3</v>
       </c>
       <c r="C1185" t="n">
-        <v>7947</v>
+        <v>30643</v>
       </c>
       <c r="D1185" t="n">
-        <v>6983</v>
+        <v>22113.66666666667</v>
       </c>
       <c r="E1185" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>1191</v>
       </c>
       <c r="B1186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1186" t="n">
         <v>7957</v>
@@ -32345,13 +32345,13 @@
         <v>1196</v>
       </c>
       <c r="B1191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1191" t="n">
         <v>7958</v>
       </c>
       <c r="D1191" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E1191" t="n">
         <v>2</v>
@@ -32437,7 +32437,7 @@
         <v>1200</v>
       </c>
       <c r="B1195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1195" t="n">
         <v>7909</v>
@@ -32483,13 +32483,13 @@
         <v>1202</v>
       </c>
       <c r="B1197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1197" t="n">
         <v>7957</v>
       </c>
       <c r="D1197" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E1197" t="n">
         <v>1</v>
@@ -32506,7 +32506,7 @@
         <v>1203</v>
       </c>
       <c r="B1198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1198" t="n">
         <v>7920</v>
@@ -32552,13 +32552,13 @@
         <v>1205</v>
       </c>
       <c r="B1200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1200" t="n">
         <v>7957</v>
       </c>
       <c r="D1200" t="n">
-        <v>6991</v>
+        <v>7232.5</v>
       </c>
       <c r="E1200" t="n">
         <v>1</v>
@@ -32897,7 +32897,7 @@
         <v>1220</v>
       </c>
       <c r="B1215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1215" t="n">
         <v>7912</v>
@@ -33035,13 +33035,13 @@
         <v>1226</v>
       </c>
       <c r="B1221" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1221" t="n">
         <v>7953</v>
       </c>
       <c r="D1221" t="n">
-        <v>7223</v>
+        <v>7366.4</v>
       </c>
       <c r="E1221" t="n">
         <v>1</v>
@@ -33311,13 +33311,13 @@
         <v>1238</v>
       </c>
       <c r="B1233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1233" t="n">
         <v>7959</v>
       </c>
       <c r="D1233" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E1233" t="n">
         <v>1</v>
@@ -33409,7 +33409,7 @@
         <v>10858</v>
       </c>
       <c r="D1237" t="n">
-        <v>7800.5</v>
+        <v>7945.25</v>
       </c>
       <c r="E1237" t="n">
         <v>1</v>
@@ -33472,13 +33472,13 @@
         <v>1245</v>
       </c>
       <c r="B1240" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1240" t="n">
-        <v>35337</v>
+        <v>31102</v>
       </c>
       <c r="D1240" t="n">
-        <v>9210.636363636364</v>
+        <v>8658.489795918367</v>
       </c>
       <c r="E1240" t="n">
         <v>7</v>
@@ -33564,13 +33564,13 @@
         <v>1249</v>
       </c>
       <c r="B1244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1244" t="n">
         <v>8244</v>
       </c>
       <c r="D1244" t="n">
-        <v>7303.75</v>
+        <v>7434.2</v>
       </c>
       <c r="E1244" t="n">
         <v>1</v>
@@ -33610,13 +33610,13 @@
         <v>1251</v>
       </c>
       <c r="B1246" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1246" t="n">
         <v>31102</v>
       </c>
       <c r="D1246" t="n">
-        <v>9925.272727272728</v>
+        <v>11402.92307692308</v>
       </c>
       <c r="E1246" t="n">
         <v>2</v>
@@ -34070,13 +34070,13 @@
         <v>1271</v>
       </c>
       <c r="B1266" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1266" t="n">
         <v>31170</v>
       </c>
       <c r="D1266" t="n">
-        <v>11942.1875</v>
+        <v>11706.76470588235</v>
       </c>
       <c r="E1266" t="n">
         <v>2</v>
@@ -34162,7 +34162,7 @@
         <v>1275</v>
       </c>
       <c r="B1270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1270" t="n">
         <v>7903</v>
@@ -34254,13 +34254,13 @@
         <v>1279</v>
       </c>
       <c r="B1274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1274" t="n">
         <v>7895</v>
       </c>
       <c r="D1274" t="n">
-        <v>6949.666666666667</v>
+        <v>7186</v>
       </c>
       <c r="E1274" t="n">
         <v>1</v>
@@ -34277,13 +34277,13 @@
         <v>1280</v>
       </c>
       <c r="B1275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1275" t="n">
         <v>7922</v>
       </c>
       <c r="D1275" t="n">
-        <v>6967.666666666667</v>
+        <v>7206.25</v>
       </c>
       <c r="E1275" t="n">
         <v>1</v>
@@ -34323,7 +34323,7 @@
         <v>1282</v>
       </c>
       <c r="B1277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1277" t="n">
         <v>7958</v>
@@ -34346,13 +34346,13 @@
         <v>1283</v>
       </c>
       <c r="B1278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1278" t="n">
         <v>7956</v>
       </c>
       <c r="D1278" t="n">
-        <v>6990</v>
+        <v>7231.5</v>
       </c>
       <c r="E1278" t="n">
         <v>1</v>
@@ -34369,13 +34369,13 @@
         <v>1284</v>
       </c>
       <c r="B1279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1279" t="n">
         <v>7952</v>
       </c>
       <c r="D1279" t="n">
-        <v>6987</v>
+        <v>7228.25</v>
       </c>
       <c r="E1279" t="n">
         <v>1</v>
@@ -34645,13 +34645,13 @@
         <v>1296</v>
       </c>
       <c r="B1291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1291" t="n">
         <v>7957</v>
       </c>
       <c r="D1291" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E1291" t="n">
         <v>1</v>
@@ -34760,13 +34760,13 @@
         <v>1301</v>
       </c>
       <c r="B1296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1296" t="n">
         <v>7949</v>
       </c>
       <c r="D1296" t="n">
-        <v>6985.333333333333</v>
+        <v>7226.25</v>
       </c>
       <c r="E1296" t="n">
         <v>1</v>
@@ -34829,13 +34829,13 @@
         <v>1304</v>
       </c>
       <c r="B1299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1299" t="n">
         <v>7958</v>
       </c>
       <c r="D1299" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E1299" t="n">
         <v>1</v>
@@ -34967,13 +34967,13 @@
         <v>1310</v>
       </c>
       <c r="B1305" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1305" t="n">
         <v>31102</v>
       </c>
       <c r="D1305" t="n">
-        <v>10432.85714285714</v>
+        <v>11569.25</v>
       </c>
       <c r="E1305" t="n">
         <v>3</v>
@@ -34990,13 +34990,13 @@
         <v>1311</v>
       </c>
       <c r="B1306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1306" t="n">
         <v>8089</v>
       </c>
       <c r="D1306" t="n">
-        <v>7264.25</v>
+        <v>7402.4</v>
       </c>
       <c r="E1306" t="n">
         <v>0</v>
@@ -35013,13 +35013,13 @@
         <v>1312</v>
       </c>
       <c r="B1307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1307" t="n">
         <v>7957</v>
       </c>
       <c r="D1307" t="n">
-        <v>6990.666666666667</v>
+        <v>7232.25</v>
       </c>
       <c r="E1307" t="n">
         <v>1</v>
@@ -35128,13 +35128,13 @@
         <v>1317</v>
       </c>
       <c r="B1312" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1312" t="n">
-        <v>34555</v>
+        <v>7923</v>
       </c>
       <c r="D1312" t="n">
-        <v>24722.66666666667</v>
+        <v>7206.75</v>
       </c>
       <c r="E1312" t="n">
         <v>1</v>
@@ -35289,7 +35289,7 @@
         <v>1324</v>
       </c>
       <c r="B1319" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1319" t="n">
         <v>7946</v>
@@ -35335,13 +35335,13 @@
         <v>1326</v>
       </c>
       <c r="B1321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1321" t="n">
         <v>7959</v>
       </c>
       <c r="D1321" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E1321" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>1329</v>
       </c>
       <c r="B1324" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1324" t="n">
         <v>7959</v>
       </c>
       <c r="D1324" t="n">
-        <v>7219</v>
+        <v>7361</v>
       </c>
       <c r="E1324" t="n">
         <v>1</v>
@@ -35450,13 +35450,13 @@
         <v>1331</v>
       </c>
       <c r="B1326" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1326" t="n">
         <v>7958</v>
       </c>
       <c r="D1326" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E1326" t="n">
         <v>0</v>
@@ -35519,7 +35519,7 @@
         <v>1334</v>
       </c>
       <c r="B1329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1329" t="n">
         <v>7920</v>
@@ -35565,13 +35565,13 @@
         <v>1336</v>
       </c>
       <c r="B1331" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1331" t="n">
         <v>7921</v>
       </c>
       <c r="D1331" t="n">
-        <v>6967</v>
+        <v>7205.5</v>
       </c>
       <c r="E1331" t="n">
         <v>1</v>
@@ -35657,13 +35657,13 @@
         <v>1340</v>
       </c>
       <c r="B1335" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1335" t="n">
         <v>31102</v>
       </c>
       <c r="D1335" t="n">
-        <v>14705.33333333333</v>
+        <v>15911.375</v>
       </c>
       <c r="E1335" t="n">
         <v>0</v>
@@ -35703,13 +35703,13 @@
         <v>1342</v>
       </c>
       <c r="B1337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1337" t="n">
         <v>7958</v>
       </c>
       <c r="D1337" t="n">
-        <v>7230.5</v>
+        <v>7375</v>
       </c>
       <c r="E1337" t="n">
         <v>1</v>
@@ -35772,13 +35772,13 @@
         <v>1345</v>
       </c>
       <c r="B1340" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1340" t="n">
         <v>35589</v>
       </c>
       <c r="D1340" t="n">
-        <v>32104.33333333333</v>
+        <v>14826.75</v>
       </c>
       <c r="E1340" t="n">
         <v>2</v>
@@ -35818,13 +35818,13 @@
         <v>1347</v>
       </c>
       <c r="B1342" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1342" t="n">
         <v>7958</v>
       </c>
       <c r="D1342" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E1342" t="n">
         <v>1</v>
@@ -35979,7 +35979,7 @@
         <v>1354</v>
       </c>
       <c r="B1349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1349" t="n">
         <v>7957</v>
@@ -36117,13 +36117,13 @@
         <v>1360</v>
       </c>
       <c r="B1355" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1355" t="n">
         <v>7959</v>
       </c>
       <c r="D1355" t="n">
-        <v>6992.333333333333</v>
+        <v>7234</v>
       </c>
       <c r="E1355" t="n">
         <v>1</v>
@@ -36140,13 +36140,13 @@
         <v>1361</v>
       </c>
       <c r="B1356" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1356" t="n">
         <v>7958</v>
       </c>
       <c r="D1356" t="n">
-        <v>7359.6</v>
+        <v>7451.666666666667</v>
       </c>
       <c r="E1356" t="n">
         <v>1</v>
@@ -36186,13 +36186,13 @@
         <v>1363</v>
       </c>
       <c r="B1358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1358" t="n">
-        <v>31083</v>
+        <v>7952</v>
       </c>
       <c r="D1358" t="n">
-        <v>31083</v>
+        <v>7952</v>
       </c>
       <c r="E1358" t="n">
         <v>0</v>
@@ -36232,13 +36232,13 @@
         <v>1365</v>
       </c>
       <c r="B1360" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1360" t="n">
         <v>7956</v>
       </c>
       <c r="D1360" t="n">
-        <v>6990.333333333333</v>
+        <v>7231.75</v>
       </c>
       <c r="E1360" t="n">
         <v>1</v>
@@ -36255,13 +36255,13 @@
         <v>1366</v>
       </c>
       <c r="B1361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1361" t="n">
         <v>7894</v>
       </c>
       <c r="D1361" t="n">
-        <v>6949</v>
+        <v>7185.25</v>
       </c>
       <c r="E1361" t="n">
         <v>1</v>
@@ -36301,13 +36301,13 @@
         <v>1368</v>
       </c>
       <c r="B1363" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1363" t="n">
         <v>30867</v>
       </c>
       <c r="D1363" t="n">
-        <v>14542.6</v>
+        <v>17263.33333333333</v>
       </c>
       <c r="E1363" t="n">
         <v>3</v>
@@ -36370,13 +36370,13 @@
         <v>1371</v>
       </c>
       <c r="B1366" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1366" t="n">
         <v>7939</v>
       </c>
       <c r="D1366" t="n">
-        <v>6499</v>
+        <v>6787</v>
       </c>
       <c r="E1366" t="n">
         <v>2</v>
@@ -36393,13 +36393,13 @@
         <v>1372</v>
       </c>
       <c r="B1367" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1367" t="n">
         <v>30984</v>
       </c>
       <c r="D1367" t="n">
-        <v>12418.22222222222</v>
+        <v>13217.66666666667</v>
       </c>
       <c r="E1367" t="n">
         <v>4</v>
@@ -36465,10 +36465,10 @@
         <v>3</v>
       </c>
       <c r="C1370" t="n">
-        <v>7519</v>
+        <v>9443</v>
       </c>
       <c r="D1370" t="n">
-        <v>4192.666666666667</v>
+        <v>7340.333333333333</v>
       </c>
       <c r="E1370" t="n">
         <v>2</v>
@@ -36537,7 +36537,7 @@
         <v>7675</v>
       </c>
       <c r="D1373" t="n">
-        <v>6732.666666666667</v>
+        <v>6803</v>
       </c>
       <c r="E1373" t="n">
         <v>1</v>
@@ -36646,7 +36646,7 @@
         <v>1383</v>
       </c>
       <c r="B1378" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1378" t="n">
         <v>7906</v>
@@ -36738,13 +36738,13 @@
         <v>1387</v>
       </c>
       <c r="B1382" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1382" t="n">
         <v>7958</v>
       </c>
       <c r="D1382" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E1382" t="n">
         <v>1</v>
@@ -36853,13 +36853,13 @@
         <v>1392</v>
       </c>
       <c r="B1387" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1387" t="n">
         <v>7869</v>
       </c>
       <c r="D1387" t="n">
-        <v>6932.333333333333</v>
+        <v>7166.5</v>
       </c>
       <c r="E1387" t="n">
         <v>1</v>
@@ -36922,7 +36922,7 @@
         <v>1395</v>
       </c>
       <c r="B1390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1390" t="n">
         <v>7922</v>
@@ -36991,7 +36991,7 @@
         <v>1398</v>
       </c>
       <c r="B1393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1393" t="n">
         <v>7763</v>
@@ -37014,13 +37014,13 @@
         <v>1399</v>
       </c>
       <c r="B1394" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1394" t="n">
         <v>8232</v>
       </c>
       <c r="D1394" t="n">
-        <v>7297.75</v>
+        <v>7428.2</v>
       </c>
       <c r="E1394" t="n">
         <v>1</v>
@@ -37037,13 +37037,13 @@
         <v>1400</v>
       </c>
       <c r="B1395" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1395" t="n">
         <v>7958</v>
       </c>
       <c r="D1395" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E1395" t="n">
         <v>1</v>
@@ -37083,13 +37083,13 @@
         <v>1402</v>
       </c>
       <c r="B1397" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1397" t="n">
         <v>7959</v>
       </c>
       <c r="D1397" t="n">
-        <v>7231.5</v>
+        <v>7376</v>
       </c>
       <c r="E1397" t="n">
         <v>1</v>
@@ -37129,13 +37129,13 @@
         <v>1404</v>
       </c>
       <c r="B1399" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1399" t="n">
         <v>7958</v>
       </c>
       <c r="D1399" t="n">
-        <v>6991.666666666667</v>
+        <v>7233.25</v>
       </c>
       <c r="E1399" t="n">
         <v>1</v>
@@ -37247,10 +37247,10 @@
         <v>12</v>
       </c>
       <c r="C1404" t="n">
-        <v>23136</v>
+        <v>31081</v>
       </c>
       <c r="D1404" t="n">
-        <v>9032.75</v>
+        <v>14209.25</v>
       </c>
       <c r="E1404" t="n">
         <v>7</v>
@@ -37267,13 +37267,13 @@
         <v>1410</v>
       </c>
       <c r="B1405" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1405" t="n">
         <v>7959</v>
       </c>
       <c r="D1405" t="n">
-        <v>7221.5</v>
+        <v>7364</v>
       </c>
       <c r="E1405" t="n">
         <v>1</v>
@@ -37382,13 +37382,13 @@
         <v>1415</v>
       </c>
       <c r="B1410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1410" t="n">
         <v>7959</v>
       </c>
       <c r="D1410" t="n">
-        <v>7231</v>
+        <v>7375.4</v>
       </c>
       <c r="E1410" t="n">
         <v>1</v>
@@ -37405,13 +37405,13 @@
         <v>1416</v>
       </c>
       <c r="B1411" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1411" t="n">
-        <v>22939</v>
+        <v>7951</v>
       </c>
       <c r="D1411" t="n">
-        <v>15445</v>
+        <v>7842.4</v>
       </c>
       <c r="E1411" t="n">
         <v>1</v>
@@ -37451,13 +37451,13 @@
         <v>1418</v>
       </c>
       <c r="B1413" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1413" t="n">
         <v>7957</v>
       </c>
       <c r="D1413" t="n">
-        <v>7941</v>
+        <v>7937.166666666667</v>
       </c>
       <c r="E1413" t="n">
         <v>2</v>
@@ -37497,7 +37497,7 @@
         <v>1420</v>
       </c>
       <c r="B1415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1415" t="n">
         <v>7957</v>
@@ -37520,7 +37520,7 @@
         <v>1421</v>
       </c>
       <c r="B1416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1416" t="n">
         <v>7958</v>
@@ -37612,13 +37612,13 @@
         <v>1425</v>
       </c>
       <c r="B1420" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1420" t="n">
         <v>7957</v>
       </c>
       <c r="D1420" t="n">
-        <v>7229</v>
+        <v>7373.4</v>
       </c>
       <c r="E1420" t="n">
         <v>1</v>
@@ -37704,13 +37704,13 @@
         <v>1429</v>
       </c>
       <c r="B1424" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1424" t="n">
         <v>7957</v>
       </c>
       <c r="D1424" t="n">
-        <v>7144.4</v>
+        <v>7278.666666666667</v>
       </c>
       <c r="E1424" t="n">
         <v>1</v>
@@ -37727,7 +37727,7 @@
         <v>1430</v>
       </c>
       <c r="B1425" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1425" t="n">
         <v>31102</v>
@@ -37773,13 +37773,13 @@
         <v>1432</v>
       </c>
       <c r="B1427" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1427" t="n">
         <v>7944</v>
       </c>
       <c r="D1427" t="n">
-        <v>6982.333333333333</v>
+        <v>7222.75</v>
       </c>
       <c r="E1427" t="n">
         <v>1</v>
@@ -38095,13 +38095,13 @@
         <v>1446</v>
       </c>
       <c r="B1441" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1441" t="n">
         <v>7957</v>
       </c>
       <c r="D1441" t="n">
-        <v>6990.333333333333</v>
+        <v>7232</v>
       </c>
       <c r="E1441" t="n">
         <v>1</v>
@@ -38164,7 +38164,7 @@
         <v>1449</v>
       </c>
       <c r="B1444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1444" t="n">
         <v>7955</v>
@@ -38417,13 +38417,13 @@
         <v>1460</v>
       </c>
       <c r="B1455" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1455" t="n">
         <v>7953</v>
       </c>
       <c r="D1455" t="n">
-        <v>6988.333333333333</v>
+        <v>7229.5</v>
       </c>
       <c r="E1455" t="n">
         <v>1</v>
@@ -38440,13 +38440,13 @@
         <v>1461</v>
       </c>
       <c r="B1456" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1456" t="n">
         <v>7958</v>
       </c>
       <c r="D1456" t="n">
-        <v>5733</v>
+        <v>5578</v>
       </c>
       <c r="E1456" t="n">
         <v>1</v>
@@ -38693,7 +38693,7 @@
         <v>1472</v>
       </c>
       <c r="B1467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1467" t="n">
         <v>7723</v>
@@ -38739,7 +38739,7 @@
         <v>1474</v>
       </c>
       <c r="B1469" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1469" t="n">
         <v>7958</v>
@@ -38900,7 +38900,7 @@
         <v>1481</v>
       </c>
       <c r="B1476" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1476" t="n">
         <v>7911</v>
@@ -38929,7 +38929,7 @@
         <v>7958</v>
       </c>
       <c r="D1477" t="n">
-        <v>5989.5</v>
+        <v>7212.5</v>
       </c>
       <c r="E1477" t="n">
         <v>1</v>
@@ -39015,13 +39015,13 @@
         <v>1486</v>
       </c>
       <c r="B1481" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1481" t="n">
         <v>7875</v>
       </c>
       <c r="D1481" t="n">
-        <v>6935.666666666667</v>
+        <v>7170.5</v>
       </c>
       <c r="E1481" t="n">
         <v>1</v>
@@ -39038,13 +39038,13 @@
         <v>1487</v>
       </c>
       <c r="B1482" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1482" t="n">
         <v>7958</v>
       </c>
       <c r="D1482" t="n">
-        <v>7231.5</v>
+        <v>7376.2</v>
       </c>
       <c r="E1482" t="n">
         <v>1</v>
@@ -39061,13 +39061,13 @@
         <v>1488</v>
       </c>
       <c r="B1483" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1483" t="n">
         <v>7958</v>
       </c>
       <c r="D1483" t="n">
-        <v>7376.8</v>
+        <v>7473.166666666667</v>
       </c>
       <c r="E1483" t="n">
         <v>2</v>
@@ -39107,13 +39107,13 @@
         <v>1490</v>
       </c>
       <c r="B1485" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1485" t="n">
-        <v>31097</v>
+        <v>31039</v>
       </c>
       <c r="D1485" t="n">
-        <v>31096.5</v>
+        <v>27089.5</v>
       </c>
       <c r="E1485" t="n">
         <v>0</v>
@@ -39130,13 +39130,13 @@
         <v>1491</v>
       </c>
       <c r="B1486" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1486" t="n">
         <v>7959</v>
       </c>
       <c r="D1486" t="n">
-        <v>7224.5</v>
+        <v>7367.6</v>
       </c>
       <c r="E1486" t="n">
         <v>1</v>
@@ -39550,7 +39550,7 @@
         <v>5058</v>
       </c>
       <c r="D1504" t="n">
-        <v>4663.846153846154</v>
+        <v>4879</v>
       </c>
       <c r="E1504" t="n">
         <v>8</v>
@@ -39616,10 +39616,10 @@
         <v>2</v>
       </c>
       <c r="C1507" t="n">
-        <v>23145</v>
+        <v>31104</v>
       </c>
       <c r="D1507" t="n">
-        <v>23145</v>
+        <v>31104</v>
       </c>
       <c r="E1507" t="n">
         <v>0</v>
@@ -39705,13 +39705,13 @@
         <v>1516</v>
       </c>
       <c r="B1511" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1511" t="n">
         <v>7953</v>
       </c>
       <c r="D1511" t="n">
-        <v>6988</v>
+        <v>7229.25</v>
       </c>
       <c r="E1511" t="n">
         <v>1</v>
@@ -39728,13 +39728,13 @@
         <v>1517</v>
       </c>
       <c r="B1512" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1512" t="n">
         <v>7953</v>
       </c>
       <c r="D1512" t="n">
-        <v>6988</v>
+        <v>7229.25</v>
       </c>
       <c r="E1512" t="n">
         <v>1</v>
@@ -39751,13 +39751,13 @@
         <v>1518</v>
       </c>
       <c r="B1513" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1513" t="n">
         <v>7958</v>
       </c>
       <c r="D1513" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E1513" t="n">
         <v>1</v>
@@ -39866,13 +39866,13 @@
         <v>1523</v>
       </c>
       <c r="B1518" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1518" t="n">
         <v>7958</v>
       </c>
       <c r="D1518" t="n">
-        <v>6991.333333333333</v>
+        <v>7233</v>
       </c>
       <c r="E1518" t="n">
         <v>1</v>
@@ -39981,13 +39981,13 @@
         <v>1528</v>
       </c>
       <c r="B1523" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1523" t="n">
         <v>7922</v>
       </c>
       <c r="D1523" t="n">
-        <v>6967.666666666667</v>
+        <v>7206.25</v>
       </c>
       <c r="E1523" t="n">
         <v>1</v>
@@ -40073,13 +40073,13 @@
         <v>1532</v>
       </c>
       <c r="B1527" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1527" t="n">
         <v>7954</v>
       </c>
       <c r="D1527" t="n">
-        <v>6988.333333333333</v>
+        <v>7229.75</v>
       </c>
       <c r="E1527" t="n">
         <v>1</v>
